--- a/docs/【勤怠管理システム】レビュー管理表.xlsx
+++ b/docs/【勤怠管理システム】レビュー管理表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513F3B84-4D6F-4B3D-9976-3C386148FAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="2"/>
+    <workbookView xWindow="1250" yWindow="650" windowWidth="11180" windowHeight="8860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">画面設計書!$A$4:$BC$34</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -821,11 +822,60 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>不要な枠を削除しました。</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称を変更しました。</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理内容を書き直しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番を修正しました。</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -1324,6 +1374,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1345,6 +1428,114 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,24 +1551,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,152 +1563,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1813,27 +1863,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="9" width="3.625" style="1"/>
+    <col min="1" max="9" width="3.58203125" style="1"/>
     <col min="10" max="15" width="4.5" style="1" customWidth="1"/>
-    <col min="16" max="18" width="3.625" style="1"/>
+    <col min="16" max="18" width="3.58203125" style="1"/>
     <col min="19" max="24" width="4.5" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="3.625" style="1"/>
+    <col min="25" max="16384" width="3.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1868,7 +1918,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1878,23 +1928,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1905,7 +1955,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1915,21 +1965,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1940,7 +1990,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1950,21 +2000,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1975,7 +2025,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2010,7 +2060,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2045,7 +2095,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2080,7 +2130,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2090,25 +2140,25 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2119,7 +2169,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2129,21 +2179,21 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -2154,7 +2204,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2189,7 +2239,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2224,7 +2274,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2259,7 +2309,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2292,7 +2342,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2302,29 +2352,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18" t="s">
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="20" t="s">
+      <c r="R16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="18" t="s">
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2335,7 +2385,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2345,29 +2395,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="19">
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="30">
         <v>44117</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="17" t="s">
+      <c r="R17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="19">
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="30">
         <v>44117</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2378,7 +2428,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2413,7 +2463,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2448,7 +2498,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2483,7 +2533,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2518,7 +2568,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2553,7 +2603,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2588,7 +2638,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2623,7 +2673,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2658,7 +2708,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2714,114 +2764,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="43" t="str">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="59" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="49" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="50" t="str">
+      <c r="W1" s="52"/>
+      <c r="X1" s="51" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49" t="s">
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="50">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="51">
         <f>表紙!M17</f>
         <v>44117</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49" t="s">
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="50" t="str">
+      <c r="W2" s="52"/>
+      <c r="X2" s="51" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="50">
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="51">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2856,7 +2906,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -2883,7 +2933,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2918,688 +2968,688 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="26" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="28"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="73"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
-      <c r="B7" s="56">
+      <c r="B7" s="41">
         <v>1</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="51">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="38">
         <v>44117</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="59" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="29" t="s">
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="31"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="67"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="67"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="67"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="67"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="67"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="67"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="67"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="67"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="67"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="67"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="76"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="67"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="67"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="67"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="67"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="67"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="67"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="23"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="69"/>
+      <c r="AE24" s="70"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3634,7 +3684,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3671,18 +3721,64 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AB24"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AB22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AB23"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="I6:AB6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
@@ -3699,64 +3795,18 @@
     <mergeCell ref="I7:AB7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="I12:AB12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AB22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AB23"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AB24"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3765,25 +3815,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG11" sqref="AG11:AZ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="51" width="3.625" style="1"/>
-    <col min="52" max="52" width="3.625" style="1" customWidth="1"/>
-    <col min="53" max="54" width="11.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.25" style="67" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="3.625" style="1"/>
+    <col min="2" max="51" width="3.58203125" style="1"/>
+    <col min="52" max="52" width="3.58203125" style="1" customWidth="1"/>
+    <col min="53" max="54" width="11.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="3.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3820,7 +3870,7 @@
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:55" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:55" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
@@ -3845,7 +3895,7 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
     </row>
-    <row r="3" spans="1:55" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:55" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3882,2150 +3932,2176 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:55" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:55" s="14" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63" t="s">
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="68" t="s">
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BB4" s="68" t="s">
+      <c r="BB4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BC4" s="69" t="s">
+      <c r="BC4" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.4">
-      <c r="A5" s="82">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="23">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74" t="s">
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="76" t="s">
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="76"/>
-      <c r="AJ5" s="76"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="76"/>
-      <c r="AQ5" s="76"/>
-      <c r="AR5" s="76"/>
-      <c r="AS5" s="76"/>
-      <c r="AT5" s="76"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="77">
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="78"/>
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="78"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="18">
         <v>44113</v>
       </c>
-      <c r="BB5" s="78" t="s">
+      <c r="BB5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC5" s="79">
+      <c r="BC5" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
-      <c r="A6" s="82">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="23">
         <f t="shared" ref="A6:A34" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74" t="s">
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="76" t="s">
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="76"/>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="77">
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="78"/>
+      <c r="AU6" s="78"/>
+      <c r="AV6" s="78"/>
+      <c r="AW6" s="78"/>
+      <c r="AX6" s="78"/>
+      <c r="AY6" s="78"/>
+      <c r="AZ6" s="78"/>
+      <c r="BA6" s="18">
         <v>44113</v>
       </c>
-      <c r="BB6" s="78" t="s">
+      <c r="BB6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC6" s="79">
+      <c r="BC6" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.4">
-      <c r="A7" s="82">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74" t="s">
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="76" t="s">
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="76"/>
-      <c r="AN7" s="76"/>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="76"/>
-      <c r="AQ7" s="76"/>
-      <c r="AR7" s="76"/>
-      <c r="AS7" s="76"/>
-      <c r="AT7" s="76"/>
-      <c r="AU7" s="76"/>
-      <c r="AV7" s="76"/>
-      <c r="AW7" s="76"/>
-      <c r="AX7" s="76"/>
-      <c r="AY7" s="76"/>
-      <c r="AZ7" s="76"/>
-      <c r="BA7" s="77">
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="78"/>
+      <c r="BA7" s="18">
         <v>44113</v>
       </c>
-      <c r="BB7" s="78" t="s">
+      <c r="BB7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC7" s="79">
+      <c r="BC7" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.4">
-      <c r="A8" s="82">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="74" t="s">
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="76" t="s">
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="76"/>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="76"/>
-      <c r="AQ8" s="76"/>
-      <c r="AR8" s="76"/>
-      <c r="AS8" s="76"/>
-      <c r="AT8" s="76"/>
-      <c r="AU8" s="76"/>
-      <c r="AV8" s="76"/>
-      <c r="AW8" s="76"/>
-      <c r="AX8" s="76"/>
-      <c r="AY8" s="76"/>
-      <c r="AZ8" s="76"/>
-      <c r="BA8" s="77">
+      <c r="AH8" s="78"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="78"/>
+      <c r="AK8" s="78"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="78"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="78"/>
+      <c r="AZ8" s="78"/>
+      <c r="BA8" s="18">
         <v>44113</v>
       </c>
-      <c r="BB8" s="78" t="s">
+      <c r="BB8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC8" s="79">
+      <c r="BC8" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="82">
+    <row r="9" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="74" t="s">
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74" t="s">
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="76"/>
-      <c r="AT9" s="76"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="76"/>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="76"/>
-      <c r="BA9" s="77">
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="78"/>
+      <c r="BA9" s="18">
         <v>44113</v>
       </c>
-      <c r="BB9" s="78" t="s">
+      <c r="BB9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC9" s="79">
+      <c r="BC9" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="82">
+    <row r="10" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="74" t="s">
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74" t="s">
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="77">
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="78"/>
+      <c r="BA10" s="18">
         <v>44113</v>
       </c>
-      <c r="BB10" s="78" t="s">
+      <c r="BB10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC10" s="79">
+      <c r="BC10" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="80">
+    <row r="11" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="35" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="66" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="36"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="36"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="45"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="45"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="45"/>
       <c r="BA11" s="9">
         <v>44113</v>
       </c>
       <c r="BB11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="BC11" s="70">
+      <c r="BC11" s="17">
         <v>44116</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="82">
+    <row r="12" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73" t="s">
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74" t="s">
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="76" t="s">
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="76"/>
-      <c r="AX12" s="76"/>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="77">
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="78"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="78"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="78"/>
+      <c r="AO12" s="78"/>
+      <c r="AP12" s="78"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="78"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="78"/>
+      <c r="AY12" s="78"/>
+      <c r="AZ12" s="78"/>
+      <c r="BA12" s="18">
         <v>44113</v>
       </c>
-      <c r="BB12" s="78" t="s">
+      <c r="BB12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC12" s="79">
+      <c r="BC12" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="80">
+    <row r="13" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="35" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="66" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="36"/>
-      <c r="AT13" s="36"/>
-      <c r="AU13" s="36"/>
-      <c r="AV13" s="36"/>
-      <c r="AW13" s="36"/>
-      <c r="AX13" s="36"/>
-      <c r="AY13" s="36"/>
-      <c r="AZ13" s="36"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
       <c r="BA13" s="9">
         <v>44113</v>
       </c>
       <c r="BB13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BC13" s="70">
+      <c r="BC13" s="17">
         <v>44116</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="80">
+    <row r="14" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="35" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="66" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="36"/>
-      <c r="AZ14" s="36"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
       <c r="BA14" s="9">
         <v>44113</v>
       </c>
       <c r="BB14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BC14" s="70">
+      <c r="BC14" s="17">
         <v>44116</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="80">
+    <row r="15" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="35" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="66" t="s">
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="36"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="36"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="36"/>
-      <c r="AW15" s="36"/>
-      <c r="AX15" s="36"/>
-      <c r="AY15" s="36"/>
-      <c r="AZ15" s="36"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="45"/>
+      <c r="AT15" s="45"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
+      <c r="AZ15" s="45"/>
       <c r="BA15" s="9">
         <v>44113</v>
       </c>
       <c r="BB15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BC15" s="70">
+      <c r="BC15" s="17">
         <v>44116</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="80">
+    <row r="16" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="35" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="66" t="s">
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="36"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="36"/>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="36"/>
-      <c r="AZ16" s="36"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
+      <c r="AZ16" s="45"/>
       <c r="BA16" s="9">
         <v>44113</v>
       </c>
       <c r="BB16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BC16" s="70">
+      <c r="BC16" s="17">
         <v>44116</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="82">
+    <row r="17" spans="1:55" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73" t="s">
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74" t="s">
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="75" t="s">
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="76"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="76"/>
-      <c r="AQ17" s="76"/>
-      <c r="AR17" s="76"/>
-      <c r="AS17" s="76"/>
-      <c r="AT17" s="76"/>
-      <c r="AU17" s="76"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="76"/>
-      <c r="AX17" s="76"/>
-      <c r="AY17" s="76"/>
-      <c r="AZ17" s="76"/>
-      <c r="BA17" s="77">
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="78"/>
+      <c r="AW17" s="78"/>
+      <c r="AX17" s="78"/>
+      <c r="AY17" s="78"/>
+      <c r="AZ17" s="78"/>
+      <c r="BA17" s="18">
         <v>44113</v>
       </c>
-      <c r="BB17" s="78" t="s">
+      <c r="BB17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BC17" s="79">
+      <c r="BC17" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="80">
+    <row r="18" spans="1:55" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="35" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="66" t="s">
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="36"/>
-      <c r="AZ18" s="36"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="45"/>
       <c r="BA18" s="9">
         <v>44117</v>
       </c>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="11"/>
-    </row>
-    <row r="19" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="80">
+      <c r="BB18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC18" s="17">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="35" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="66" t="s">
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="36"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
       <c r="BA19" s="9">
         <v>44117</v>
       </c>
-      <c r="BB19" s="10"/>
-      <c r="BC19" s="11"/>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.4">
-      <c r="A20" s="80">
+      <c r="BB19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC19" s="17">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="35" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35" t="s">
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="66" t="s">
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
-      <c r="AT20" s="36"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="36"/>
-      <c r="AX20" s="36"/>
-      <c r="AY20" s="36"/>
-      <c r="AZ20" s="36"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="45"/>
+      <c r="AY20" s="45"/>
+      <c r="AZ20" s="45"/>
       <c r="BA20" s="9">
         <v>44117</v>
       </c>
       <c r="BB20" s="10"/>
       <c r="BC20" s="11"/>
     </row>
-    <row r="21" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="80">
+    <row r="21" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="35" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="66" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
-      <c r="AT21" s="36"/>
-      <c r="AU21" s="36"/>
-      <c r="AV21" s="36"/>
-      <c r="AW21" s="36"/>
-      <c r="AX21" s="36"/>
-      <c r="AY21" s="36"/>
-      <c r="AZ21" s="36"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="45"/>
       <c r="BA21" s="9">
         <v>44117</v>
       </c>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="11"/>
-    </row>
-    <row r="22" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="80">
+      <c r="BB21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC21" s="17">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="35" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35" t="s">
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="66" t="s">
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="36"/>
-      <c r="AX22" s="36"/>
-      <c r="AY22" s="36"/>
-      <c r="AZ22" s="36"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="45"/>
       <c r="BA22" s="9">
         <v>44117</v>
       </c>
-      <c r="BB22" s="10"/>
-      <c r="BC22" s="11"/>
-    </row>
-    <row r="23" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="80">
+      <c r="BB22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC22" s="17">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="35" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35" t="s">
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="66" t="s">
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="36"/>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="36"/>
-      <c r="AZ23" s="36"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
       <c r="BA23" s="9">
         <v>44117</v>
       </c>
       <c r="BB23" s="10"/>
       <c r="BC23" s="11"/>
     </row>
-    <row r="24" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="80">
+    <row r="24" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="35" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35" t="s">
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="66" t="s">
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="36"/>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="36"/>
-      <c r="AZ24" s="36"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="45"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="45"/>
+      <c r="AW24" s="45"/>
+      <c r="AX24" s="45"/>
+      <c r="AY24" s="45"/>
+      <c r="AZ24" s="45"/>
       <c r="BA24" s="9">
         <v>44117</v>
       </c>
       <c r="BB24" s="10"/>
       <c r="BC24" s="11"/>
     </row>
-    <row r="25" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="80">
+    <row r="25" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="36"/>
-      <c r="AS25" s="36"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="36"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="36"/>
-      <c r="AX25" s="36"/>
-      <c r="AY25" s="36"/>
-      <c r="AZ25" s="36"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
       <c r="BA25" s="10"/>
       <c r="BB25" s="10"/>
       <c r="BC25" s="11"/>
     </row>
-    <row r="26" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="80">
+    <row r="26" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="36"/>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="36"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="36"/>
-      <c r="AZ26" s="36"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="77"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="45"/>
+      <c r="AZ26" s="45"/>
       <c r="BA26" s="10"/>
       <c r="BB26" s="10"/>
       <c r="BC26" s="11"/>
     </row>
-    <row r="27" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="80">
+    <row r="27" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="36"/>
-      <c r="AW27" s="36"/>
-      <c r="AX27" s="36"/>
-      <c r="AY27" s="36"/>
-      <c r="AZ27" s="36"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="45"/>
+      <c r="AZ27" s="45"/>
       <c r="BA27" s="10"/>
       <c r="BB27" s="10"/>
       <c r="BC27" s="11"/>
     </row>
-    <row r="28" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="80">
+    <row r="28" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="36"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="45"/>
+      <c r="AS28" s="45"/>
+      <c r="AT28" s="45"/>
+      <c r="AU28" s="45"/>
+      <c r="AV28" s="45"/>
+      <c r="AW28" s="45"/>
+      <c r="AX28" s="45"/>
+      <c r="AY28" s="45"/>
+      <c r="AZ28" s="45"/>
       <c r="BA28" s="10"/>
       <c r="BB28" s="10"/>
       <c r="BC28" s="11"/>
     </row>
-    <row r="29" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="80">
+    <row r="29" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="36"/>
-      <c r="AS29" s="36"/>
-      <c r="AT29" s="36"/>
-      <c r="AU29" s="36"/>
-      <c r="AV29" s="36"/>
-      <c r="AW29" s="36"/>
-      <c r="AX29" s="36"/>
-      <c r="AY29" s="36"/>
-      <c r="AZ29" s="36"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="45"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="45"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="45"/>
+      <c r="AX29" s="45"/>
+      <c r="AY29" s="45"/>
+      <c r="AZ29" s="45"/>
       <c r="BA29" s="10"/>
       <c r="BB29" s="10"/>
       <c r="BC29" s="11"/>
     </row>
-    <row r="30" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="80">
+    <row r="30" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="36"/>
-      <c r="AR30" s="36"/>
-      <c r="AS30" s="36"/>
-      <c r="AT30" s="36"/>
-      <c r="AU30" s="36"/>
-      <c r="AV30" s="36"/>
-      <c r="AW30" s="36"/>
-      <c r="AX30" s="36"/>
-      <c r="AY30" s="36"/>
-      <c r="AZ30" s="36"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="45"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="45"/>
+      <c r="AX30" s="45"/>
+      <c r="AY30" s="45"/>
+      <c r="AZ30" s="45"/>
       <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
       <c r="BC30" s="11"/>
     </row>
-    <row r="31" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="80">
+    <row r="31" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="36"/>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-      <c r="AS31" s="36"/>
-      <c r="AT31" s="36"/>
-      <c r="AU31" s="36"/>
-      <c r="AV31" s="36"/>
-      <c r="AW31" s="36"/>
-      <c r="AX31" s="36"/>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="36"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="45"/>
+      <c r="AX31" s="45"/>
+      <c r="AY31" s="45"/>
+      <c r="AZ31" s="45"/>
       <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
       <c r="BC31" s="11"/>
     </row>
-    <row r="32" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="80">
+    <row r="32" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="36"/>
-      <c r="AS32" s="36"/>
-      <c r="AT32" s="36"/>
-      <c r="AU32" s="36"/>
-      <c r="AV32" s="36"/>
-      <c r="AW32" s="36"/>
-      <c r="AX32" s="36"/>
-      <c r="AY32" s="36"/>
-      <c r="AZ32" s="36"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="45"/>
+      <c r="AX32" s="45"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="45"/>
       <c r="BA32" s="10"/>
       <c r="BB32" s="10"/>
       <c r="BC32" s="11"/>
     </row>
-    <row r="33" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="80">
+    <row r="33" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="36"/>
-      <c r="AR33" s="36"/>
-      <c r="AS33" s="36"/>
-      <c r="AT33" s="36"/>
-      <c r="AU33" s="36"/>
-      <c r="AV33" s="36"/>
-      <c r="AW33" s="36"/>
-      <c r="AX33" s="36"/>
-      <c r="AY33" s="36"/>
-      <c r="AZ33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77"/>
+      <c r="AE33" s="77"/>
+      <c r="AF33" s="77"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="45"/>
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="45"/>
       <c r="BA33" s="10"/>
       <c r="BB33" s="10"/>
       <c r="BC33" s="11"/>
     </row>
-    <row r="34" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="83">
+    <row r="34" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="25"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="25"/>
-      <c r="AP34" s="25"/>
-      <c r="AQ34" s="25"/>
-      <c r="AR34" s="25"/>
-      <c r="AS34" s="25"/>
-      <c r="AT34" s="25"/>
-      <c r="AU34" s="25"/>
-      <c r="AV34" s="25"/>
-      <c r="AW34" s="25"/>
-      <c r="AX34" s="25"/>
-      <c r="AY34" s="25"/>
-      <c r="AZ34" s="25"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="83"/>
+      <c r="AF34" s="83"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="72"/>
+      <c r="AM34" s="72"/>
+      <c r="AN34" s="72"/>
+      <c r="AO34" s="72"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="72"/>
       <c r="BA34" s="12"/>
       <c r="BB34" s="12"/>
       <c r="BC34" s="13"/>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -6063,7 +6139,7 @@
       <c r="AJ35" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:BC34">
+  <autoFilter ref="A4:BC34" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
@@ -6112,6 +6188,137 @@
     <filterColumn colId="50" showButton="0"/>
   </autoFilter>
   <mergeCells count="155">
+    <mergeCell ref="M33:AF33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:AF32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="AG33:AZ33"/>
+    <mergeCell ref="AG34:AZ34"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="AG18:AZ18"/>
+    <mergeCell ref="AG19:AZ19"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="M34:AF34"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:AF21"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M14:AF14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="M15:AF15"/>
+    <mergeCell ref="AG14:AZ14"/>
+    <mergeCell ref="AG15:AZ15"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="AG12:AZ12"/>
+    <mergeCell ref="AG13:AZ13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="M10:AF10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="M11:AF11"/>
+    <mergeCell ref="AG10:AZ10"/>
+    <mergeCell ref="AG11:AZ11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="M12:AF12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="M13:AF13"/>
+    <mergeCell ref="AG8:AZ8"/>
+    <mergeCell ref="AG9:AZ9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="M6:AF6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="M7:AF7"/>
+    <mergeCell ref="AG6:AZ6"/>
+    <mergeCell ref="AG7:AZ7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="M8:AF8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M9:AF9"/>
+    <mergeCell ref="AG4:AZ4"/>
+    <mergeCell ref="AG5:AZ5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="M4:AF4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="M5:AF5"/>
+    <mergeCell ref="AG32:AZ32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:AF30"/>
+    <mergeCell ref="AG30:AZ30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:AF31"/>
+    <mergeCell ref="AG31:AZ31"/>
+    <mergeCell ref="AG22:AZ22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:AF29"/>
+    <mergeCell ref="AG29:AZ29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:AF28"/>
+    <mergeCell ref="AG28:AZ28"/>
+    <mergeCell ref="M26:AF26"/>
+    <mergeCell ref="AG26:AZ26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:AF27"/>
+    <mergeCell ref="AG27:AZ27"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="I20:L20"/>
@@ -6136,144 +6343,13 @@
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="M22:AF22"/>
-    <mergeCell ref="AG22:AZ22"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:AF29"/>
-    <mergeCell ref="AG29:AZ29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:AF28"/>
-    <mergeCell ref="AG28:AZ28"/>
-    <mergeCell ref="M26:AF26"/>
-    <mergeCell ref="AG26:AZ26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:AF27"/>
-    <mergeCell ref="AG27:AZ27"/>
-    <mergeCell ref="AG32:AZ32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:AF30"/>
-    <mergeCell ref="AG30:AZ30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:AF31"/>
-    <mergeCell ref="AG31:AZ31"/>
-    <mergeCell ref="AG4:AZ4"/>
-    <mergeCell ref="AG5:AZ5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="M4:AF4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="M5:AF5"/>
-    <mergeCell ref="AG8:AZ8"/>
-    <mergeCell ref="AG9:AZ9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="M6:AF6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="M7:AF7"/>
-    <mergeCell ref="AG6:AZ6"/>
-    <mergeCell ref="AG7:AZ7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="M8:AF8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M9:AF9"/>
-    <mergeCell ref="AG12:AZ12"/>
-    <mergeCell ref="AG13:AZ13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="M10:AF10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="M11:AF11"/>
-    <mergeCell ref="AG10:AZ10"/>
-    <mergeCell ref="AG11:AZ11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="M12:AF12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="M13:AF13"/>
-    <mergeCell ref="AG16:AZ16"/>
-    <mergeCell ref="AG17:AZ17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M14:AF14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="M15:AF15"/>
-    <mergeCell ref="AG14:AZ14"/>
-    <mergeCell ref="AG15:AZ15"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="M16:AF16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="M17:AF17"/>
-    <mergeCell ref="AG21:AZ21"/>
-    <mergeCell ref="AG33:AZ33"/>
-    <mergeCell ref="AG34:AZ34"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="M18:AF18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="M19:AF19"/>
-    <mergeCell ref="AG18:AZ18"/>
-    <mergeCell ref="AG19:AZ19"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="M34:AF34"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:AF21"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="M33:AF33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:AF32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:L6" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"表紙,更新履歴,画面デザイン,入出力項目,処理概要,備考"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:L34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:L34" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"表紙,更新履歴,画面デザイン,入出力項目,処理概要,備考,その他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/【勤怠管理システム】レビュー管理表.xlsx
+++ b/docs/【勤怠管理システム】レビュー管理表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513F3B84-4D6F-4B3D-9976-3C386148FAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1250" yWindow="650" windowWidth="11180" windowHeight="8860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">画面設計書!$A$4:$BC$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -641,38 +640,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「workCalendar」の処理は画面描画の処理なのでメソッドは不要。
-（「workReportPath」メソッドで画面遷移させる想定だと思うので）</t>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -823,6 +790,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Serviceのメソッドを呼び出すという意味でした。紛らわしいので削除しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータで遷移先を誘導。returnでリダイレクトを指定。
+メソッド名を「getoutFromKK04001」に変更。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月別一覧(KK02001)で処理をしてもらうようにしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「出社時間」「退社時間」「休憩時間」の@NotEmptyを削除しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者名を「深町」へ変更しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名を「勤務報告書画面」へと修正しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称を変更しました。</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理内容を書き直しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番を修正しました。</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>不要な枠を削除しました。</t>
     <rPh sb="0" eb="2">
       <t>フヨウ</t>
@@ -836,38 +864,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名称を変更しました。</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
+    <r>
+      <t xml:space="preserve">「workCalendar」の処理は画面描画の処理なのでメソッドは不要。
+（「workReportPath」メソッドで画面遷移させる想定だと思うので）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2020/10/14 髙田
+メソッドは削除せずViewに渡すデータの取得処理を記載するようにする。</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>タカダ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KK02001</t>
+  </si>
+  <si>
+    <t>KK04001</t>
+  </si>
+  <si>
+    <t>入出力項目のリストを変更したので同様の形式に修正お願いします。
+（KK01001 or KK03001 参照）</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュツリョク</t>
     </rPh>
     <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>処理内容を書き直しました。</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項番を修正しました。</t>
-    <rPh sb="0" eb="2">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="16" eb="18">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -875,7 +967,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -981,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1329,11 +1421,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1374,6 +1479,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1383,9 +1491,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,161 +1533,173 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1863,27 +1980,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="9" width="3.58203125" style="1"/>
+    <col min="1" max="9" width="3.625" style="1"/>
     <col min="10" max="15" width="4.5" style="1" customWidth="1"/>
-    <col min="16" max="18" width="3.58203125" style="1"/>
+    <col min="16" max="18" width="3.625" style="1"/>
     <col min="19" max="24" width="4.5" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="3.58203125" style="1"/>
+    <col min="25" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1918,7 +2035,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1955,7 +2072,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1990,7 +2107,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2025,7 +2142,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2060,7 +2177,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2095,7 +2212,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2130,7 +2247,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2169,7 +2286,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2204,7 +2321,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2239,7 +2356,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2274,7 +2391,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2309,7 +2426,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2342,7 +2459,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2385,7 +2502,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2428,7 +2545,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2463,7 +2580,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2498,7 +2615,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2533,7 +2650,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2568,7 +2685,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2603,7 +2720,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2638,7 +2755,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2673,7 +2790,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2708,7 +2825,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2764,114 +2881,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="1"/>
+    <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="59" t="str">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="54" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="52" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="51" t="str">
+      <c r="W1" s="60"/>
+      <c r="X1" s="61" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52" t="s">
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="51">
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61">
         <f>表紙!M17</f>
         <v>44117</v>
       </c>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="52" t="s">
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="52"/>
-      <c r="X2" s="51" t="str">
+      <c r="W2" s="60"/>
+      <c r="X2" s="61" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52" t="s">
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="51">
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="61">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2906,7 +3023,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -2933,7 +3050,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2968,688 +3085,688 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="36" t="s">
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="73"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="39"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="41">
+      <c r="B7" s="67">
         <v>1</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="38">
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="62">
         <v>44117</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="46" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="65" t="s">
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="67"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="42"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="67"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="42"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="67"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="42"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="67"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="42"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="67"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="42"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="67"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="42"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="67"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="42"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="67"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="42"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="67"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="42"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="67"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="42"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="76"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="45"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="67"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="42"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="67"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="42"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="67"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="42"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="67"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="42"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="67"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="42"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="67"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="42"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="70"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="34"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3684,7 +3801,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3721,6 +3838,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AB22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AB23"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="I24:AB24"/>
@@ -3737,76 +3924,6 @@
     <mergeCell ref="AC16:AE16"/>
     <mergeCell ref="AC17:AE17"/>
     <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AB22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AB23"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="I12:AB12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3815,25 +3932,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG11" sqref="AG11:AZ11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="51" width="3.58203125" style="1"/>
-    <col min="52" max="52" width="3.58203125" style="1" customWidth="1"/>
-    <col min="53" max="54" width="11.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="3.58203125" style="1"/>
+    <col min="2" max="51" width="3.625" style="1"/>
+    <col min="52" max="52" width="3.625" style="1" customWidth="1"/>
+    <col min="53" max="54" width="11.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3870,7 +3987,7 @@
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:55" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:55" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
@@ -3895,7 +4012,7 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
     </row>
-    <row r="3" spans="1:55" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:55" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3932,103 +4049,103 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:55" s="14" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50" t="s">
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50" t="s">
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="15" t="s">
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="BB4" s="15" t="s">
+      <c r="BB4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="BC4" s="16" t="s">
+      <c r="BC4" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.4">
       <c r="A5" s="23">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="79" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
       <c r="M5" s="81" t="s">
         <v>52</v>
       </c>
@@ -4083,28 +4200,28 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
       <c r="A6" s="23">
-        <f t="shared" ref="A6:A34" si="0">ROW()-4</f>
+        <f t="shared" ref="A6:A26" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="79" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
       <c r="M6" s="81" t="s">
         <v>34</v>
       </c>
@@ -4159,28 +4276,28 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.4">
       <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="79" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
       <c r="M7" s="81" t="s">
         <v>35</v>
       </c>
@@ -4235,28 +4352,28 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.4">
       <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="79" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79" t="s">
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
       <c r="M8" s="81" t="s">
         <v>37</v>
       </c>
@@ -4311,28 +4428,28 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="79" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
       <c r="M9" s="81" t="s">
         <v>38</v>
       </c>
@@ -4387,28 +4504,28 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="79" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79" t="s">
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
       <c r="M10" s="81" t="s">
         <v>39</v>
       </c>
@@ -4463,104 +4580,104 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="21">
+    <row r="11" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="44" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44" t="s">
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="77" t="s">
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="9">
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="78"/>
+      <c r="AZ11" s="78"/>
+      <c r="BA11" s="18">
         <v>44113</v>
       </c>
-      <c r="BB11" s="10" t="s">
+      <c r="BB11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC11" s="17">
-        <v>44116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BC11" s="20">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="79" t="s">
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79" t="s">
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
       <c r="M12" s="81" t="s">
         <v>42</v>
       </c>
@@ -4615,324 +4732,332 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="21">
+    <row r="13" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="44" t="s">
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44" t="s">
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="77" t="s">
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="9">
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="78"/>
+      <c r="AR13" s="78"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="78"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="78"/>
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="78"/>
+      <c r="AY13" s="78"/>
+      <c r="AZ13" s="78"/>
+      <c r="BA13" s="18">
         <v>44113</v>
       </c>
-      <c r="BB13" s="10" t="s">
+      <c r="BB13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BC13" s="17">
+      <c r="BC13" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="21">
+    <row r="14" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="44" t="s">
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44" t="s">
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="77" t="s">
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="9">
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH14" s="78"/>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="78"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="78"/>
+      <c r="AO14" s="78"/>
+      <c r="AP14" s="78"/>
+      <c r="AQ14" s="78"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="78"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="78"/>
+      <c r="AW14" s="78"/>
+      <c r="AX14" s="78"/>
+      <c r="AY14" s="78"/>
+      <c r="AZ14" s="78"/>
+      <c r="BA14" s="18">
         <v>44113</v>
       </c>
-      <c r="BB14" s="10" t="s">
+      <c r="BB14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BC14" s="17">
+      <c r="BC14" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="21">
+    <row r="15" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="44" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44" t="s">
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="77" t="s">
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="45"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="45"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="45"/>
-      <c r="AR15" s="45"/>
-      <c r="AS15" s="45"/>
-      <c r="AT15" s="45"/>
-      <c r="AU15" s="45"/>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="45"/>
-      <c r="AX15" s="45"/>
-      <c r="AY15" s="45"/>
-      <c r="AZ15" s="45"/>
-      <c r="BA15" s="9">
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="78"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="78"/>
+      <c r="AX15" s="78"/>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="78"/>
+      <c r="BA15" s="18">
         <v>44113</v>
       </c>
-      <c r="BB15" s="10" t="s">
+      <c r="BB15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BC15" s="17">
+      <c r="BC15" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="21">
+    <row r="16" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="44" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44" t="s">
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="77" t="s">
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
-      <c r="AZ16" s="45"/>
-      <c r="BA16" s="9">
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
+      <c r="AK16" s="78"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="78"/>
+      <c r="AO16" s="78"/>
+      <c r="AP16" s="78"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="78"/>
+      <c r="AW16" s="78"/>
+      <c r="AX16" s="78"/>
+      <c r="AY16" s="78"/>
+      <c r="AZ16" s="78"/>
+      <c r="BA16" s="18">
         <v>44113</v>
       </c>
-      <c r="BB16" s="10" t="s">
+      <c r="BB16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BC16" s="17">
+      <c r="BC16" s="20">
         <v>44116</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:55" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="79" t="s">
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79" t="s">
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
       <c r="M17" s="81" t="s">
         <v>48</v>
       </c>
@@ -4955,8 +5080,8 @@
       <c r="AD17" s="81"/>
       <c r="AE17" s="81"/>
       <c r="AF17" s="81"/>
-      <c r="AG17" s="82" t="s">
-        <v>68</v>
+      <c r="AG17" s="83" t="s">
+        <v>67</v>
       </c>
       <c r="AH17" s="78"/>
       <c r="AI17" s="78"/>
@@ -4987,180 +5112,180 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="21">
+    <row r="18" spans="1:55" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="44" t="s">
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44" t="s">
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="AZ18" s="45"/>
-      <c r="BA18" s="9">
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH18" s="78"/>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="78"/>
+      <c r="AL18" s="78"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="78"/>
+      <c r="AO18" s="78"/>
+      <c r="AP18" s="78"/>
+      <c r="AQ18" s="78"/>
+      <c r="AR18" s="78"/>
+      <c r="AS18" s="78"/>
+      <c r="AT18" s="78"/>
+      <c r="AU18" s="78"/>
+      <c r="AV18" s="78"/>
+      <c r="AW18" s="78"/>
+      <c r="AX18" s="78"/>
+      <c r="AY18" s="78"/>
+      <c r="AZ18" s="78"/>
+      <c r="BA18" s="18">
         <v>44117</v>
       </c>
-      <c r="BB18" s="10" t="s">
+      <c r="BB18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC18" s="17">
+      <c r="BC18" s="20">
         <v>44118</v>
       </c>
     </row>
-    <row r="19" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="21">
+    <row r="19" spans="1:55" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="44" t="s">
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44" t="s">
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="9">
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="78"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="78"/>
+      <c r="AX19" s="78"/>
+      <c r="AY19" s="78"/>
+      <c r="AZ19" s="78"/>
+      <c r="BA19" s="18">
         <v>44117</v>
       </c>
-      <c r="BB19" s="10" t="s">
+      <c r="BB19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC19" s="17">
-        <v>44116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="BC19" s="20">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.4">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="44" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44" t="s">
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="77" t="s">
         <v>62</v>
       </c>
@@ -5183,341 +5308,361 @@
       <c r="AD20" s="77"/>
       <c r="AE20" s="77"/>
       <c r="AF20" s="77"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="47"/>
+      <c r="AX20" s="47"/>
+      <c r="AY20" s="47"/>
+      <c r="AZ20" s="47"/>
       <c r="BA20" s="9">
         <v>44117</v>
       </c>
       <c r="BB20" s="10"/>
       <c r="BC20" s="11"/>
     </row>
-    <row r="21" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="21">
+    <row r="21" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="44" t="s">
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44" t="s">
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="77" t="s">
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="77"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="AZ21" s="45"/>
-      <c r="BA21" s="9">
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="78"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="78"/>
+      <c r="AZ21" s="78"/>
+      <c r="BA21" s="18">
         <v>44117</v>
       </c>
-      <c r="BB21" s="10" t="s">
+      <c r="BB21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC21" s="17">
-        <v>44116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="21">
+      <c r="BC21" s="20">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="44" t="s">
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44" t="s">
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="77" t="s">
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="45" t="s">
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="45"/>
-      <c r="BA22" s="9">
+      <c r="AH22" s="78"/>
+      <c r="AI22" s="78"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="78"/>
+      <c r="AP22" s="78"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="78"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="78"/>
+      <c r="AW22" s="78"/>
+      <c r="AX22" s="78"/>
+      <c r="AY22" s="78"/>
+      <c r="AZ22" s="78"/>
+      <c r="BA22" s="18">
         <v>44117</v>
       </c>
-      <c r="BB22" s="10" t="s">
+      <c r="BB22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BC22" s="17">
-        <v>44116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="21">
+      <c r="BC22" s="20">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="44" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44" t="s">
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="77"/>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="77"/>
-      <c r="AE23" s="77"/>
-      <c r="AF23" s="77"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="45"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="9">
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="85"/>
+      <c r="AK23" s="85"/>
+      <c r="AL23" s="85"/>
+      <c r="AM23" s="85"/>
+      <c r="AN23" s="85"/>
+      <c r="AO23" s="85"/>
+      <c r="AP23" s="85"/>
+      <c r="AQ23" s="85"/>
+      <c r="AR23" s="85"/>
+      <c r="AS23" s="85"/>
+      <c r="AT23" s="85"/>
+      <c r="AU23" s="85"/>
+      <c r="AV23" s="85"/>
+      <c r="AW23" s="85"/>
+      <c r="AX23" s="85"/>
+      <c r="AY23" s="85"/>
+      <c r="AZ23" s="86"/>
+      <c r="BA23" s="18">
         <v>44117</v>
       </c>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="11"/>
-    </row>
-    <row r="24" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="21">
+      <c r="BB23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC23" s="20">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="44" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44" t="s">
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="77"/>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="77"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="45"/>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="45"/>
-      <c r="AZ24" s="45"/>
-      <c r="BA24" s="9">
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH24" s="85"/>
+      <c r="AI24" s="85"/>
+      <c r="AJ24" s="85"/>
+      <c r="AK24" s="85"/>
+      <c r="AL24" s="85"/>
+      <c r="AM24" s="85"/>
+      <c r="AN24" s="85"/>
+      <c r="AO24" s="85"/>
+      <c r="AP24" s="85"/>
+      <c r="AQ24" s="85"/>
+      <c r="AR24" s="85"/>
+      <c r="AS24" s="85"/>
+      <c r="AT24" s="85"/>
+      <c r="AU24" s="85"/>
+      <c r="AV24" s="85"/>
+      <c r="AW24" s="85"/>
+      <c r="AX24" s="85"/>
+      <c r="AY24" s="85"/>
+      <c r="AZ24" s="86"/>
+      <c r="BA24" s="18">
         <v>44117</v>
       </c>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="11"/>
-    </row>
-    <row r="25" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BB24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC24" s="20">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="77"/>
+      <c r="B25" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="77" t="s">
+        <v>81</v>
+      </c>
       <c r="N25" s="77"/>
       <c r="O25" s="77"/>
       <c r="P25" s="77"/>
@@ -5537,47 +5682,57 @@
       <c r="AD25" s="77"/>
       <c r="AE25" s="77"/>
       <c r="AF25" s="77"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="45"/>
-      <c r="AU25" s="45"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="10"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="14">
+        <v>44118</v>
+      </c>
       <c r="BB25" s="10"/>
       <c r="BC25" s="11"/>
     </row>
-    <row r="26" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="77"/>
+      <c r="B26" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="77" t="s">
+        <v>81</v>
+      </c>
       <c r="N26" s="77"/>
       <c r="O26" s="77"/>
       <c r="P26" s="77"/>
@@ -5597,46 +5752,45 @@
       <c r="AD26" s="77"/>
       <c r="AE26" s="77"/>
       <c r="AF26" s="77"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="45"/>
-      <c r="AZ26" s="45"/>
-      <c r="BA26" s="10"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="47"/>
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="47"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="47"/>
+      <c r="AS26" s="47"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="47"/>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="47"/>
+      <c r="AY26" s="47"/>
+      <c r="AZ26" s="47"/>
+      <c r="BA26" s="14">
+        <v>44118</v>
+      </c>
       <c r="BB26" s="10"/>
       <c r="BC26" s="11"/>
     </row>
-    <row r="27" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="21">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
+    <row r="27" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
       <c r="M27" s="77"/>
       <c r="N27" s="77"/>
       <c r="O27" s="77"/>
@@ -5657,46 +5811,43 @@
       <c r="AD27" s="77"/>
       <c r="AE27" s="77"/>
       <c r="AF27" s="77"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="45"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="45"/>
-      <c r="AZ27" s="45"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="47"/>
+      <c r="AN27" s="47"/>
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="47"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="47"/>
+      <c r="AS27" s="47"/>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="47"/>
+      <c r="AV27" s="47"/>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="47"/>
+      <c r="AZ27" s="47"/>
       <c r="BA27" s="10"/>
       <c r="BB27" s="10"/>
       <c r="BC27" s="11"/>
     </row>
-    <row r="28" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="21">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
+    <row r="28" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
       <c r="M28" s="77"/>
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
@@ -5717,46 +5868,43 @@
       <c r="AD28" s="77"/>
       <c r="AE28" s="77"/>
       <c r="AF28" s="77"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="45"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="45"/>
-      <c r="AU28" s="45"/>
-      <c r="AV28" s="45"/>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="45"/>
-      <c r="AY28" s="45"/>
-      <c r="AZ28" s="45"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="47"/>
       <c r="BA28" s="10"/>
       <c r="BB28" s="10"/>
       <c r="BC28" s="11"/>
     </row>
-    <row r="29" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="21">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
+    <row r="29" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
       <c r="M29" s="77"/>
       <c r="N29" s="77"/>
       <c r="O29" s="77"/>
@@ -5777,46 +5925,43 @@
       <c r="AD29" s="77"/>
       <c r="AE29" s="77"/>
       <c r="AF29" s="77"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="45"/>
-      <c r="AX29" s="45"/>
-      <c r="AY29" s="45"/>
-      <c r="AZ29" s="45"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="47"/>
+      <c r="AN29" s="47"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="47"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="47"/>
+      <c r="AS29" s="47"/>
+      <c r="AT29" s="47"/>
+      <c r="AU29" s="47"/>
+      <c r="AV29" s="47"/>
+      <c r="AW29" s="47"/>
+      <c r="AX29" s="47"/>
+      <c r="AY29" s="47"/>
+      <c r="AZ29" s="47"/>
       <c r="BA29" s="10"/>
       <c r="BB29" s="10"/>
       <c r="BC29" s="11"/>
     </row>
-    <row r="30" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="21">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
+    <row r="30" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
       <c r="M30" s="77"/>
       <c r="N30" s="77"/>
       <c r="O30" s="77"/>
@@ -5837,46 +5982,43 @@
       <c r="AD30" s="77"/>
       <c r="AE30" s="77"/>
       <c r="AF30" s="77"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="45"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
-      <c r="AT30" s="45"/>
-      <c r="AU30" s="45"/>
-      <c r="AV30" s="45"/>
-      <c r="AW30" s="45"/>
-      <c r="AX30" s="45"/>
-      <c r="AY30" s="45"/>
-      <c r="AZ30" s="45"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="47"/>
+      <c r="AP30" s="47"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
+      <c r="AT30" s="47"/>
+      <c r="AU30" s="47"/>
+      <c r="AV30" s="47"/>
+      <c r="AW30" s="47"/>
+      <c r="AX30" s="47"/>
+      <c r="AY30" s="47"/>
+      <c r="AZ30" s="47"/>
       <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
       <c r="BC30" s="11"/>
     </row>
-    <row r="31" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="21">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
+    <row r="31" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
       <c r="M31" s="77"/>
       <c r="N31" s="77"/>
       <c r="O31" s="77"/>
@@ -5897,46 +6039,43 @@
       <c r="AD31" s="77"/>
       <c r="AE31" s="77"/>
       <c r="AF31" s="77"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="45"/>
-      <c r="AQ31" s="45"/>
-      <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="45"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
-      <c r="AW31" s="45"/>
-      <c r="AX31" s="45"/>
-      <c r="AY31" s="45"/>
-      <c r="AZ31" s="45"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
       <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
       <c r="BC31" s="11"/>
     </row>
-    <row r="32" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="21">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
+    <row r="32" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
       <c r="M32" s="77"/>
       <c r="N32" s="77"/>
       <c r="O32" s="77"/>
@@ -5957,46 +6096,43 @@
       <c r="AD32" s="77"/>
       <c r="AE32" s="77"/>
       <c r="AF32" s="77"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="45"/>
-      <c r="AQ32" s="45"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="45"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="47"/>
+      <c r="AY32" s="47"/>
+      <c r="AZ32" s="47"/>
       <c r="BA32" s="10"/>
       <c r="BB32" s="10"/>
       <c r="BC32" s="11"/>
     </row>
-    <row r="33" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="21">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
+    <row r="33" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
       <c r="M33" s="77"/>
       <c r="N33" s="77"/>
       <c r="O33" s="77"/>
@@ -6017,91 +6153,88 @@
       <c r="AD33" s="77"/>
       <c r="AE33" s="77"/>
       <c r="AF33" s="77"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="45"/>
-      <c r="AP33" s="45"/>
-      <c r="AQ33" s="45"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="45"/>
-      <c r="AU33" s="45"/>
-      <c r="AV33" s="45"/>
-      <c r="AW33" s="45"/>
-      <c r="AX33" s="45"/>
-      <c r="AY33" s="45"/>
-      <c r="AZ33" s="45"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="47"/>
+      <c r="AI33" s="47"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="47"/>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="47"/>
+      <c r="AS33" s="47"/>
+      <c r="AT33" s="47"/>
+      <c r="AU33" s="47"/>
+      <c r="AV33" s="47"/>
+      <c r="AW33" s="47"/>
+      <c r="AX33" s="47"/>
+      <c r="AY33" s="47"/>
+      <c r="AZ33" s="47"/>
       <c r="BA33" s="10"/>
       <c r="BB33" s="10"/>
       <c r="BC33" s="11"/>
     </row>
-    <row r="34" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="83"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="83"/>
-      <c r="AD34" s="83"/>
-      <c r="AE34" s="83"/>
-      <c r="AF34" s="83"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="72"/>
-      <c r="AL34" s="72"/>
-      <c r="AM34" s="72"/>
-      <c r="AN34" s="72"/>
-      <c r="AO34" s="72"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
-      <c r="AR34" s="72"/>
-      <c r="AS34" s="72"/>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
-      <c r="AY34" s="72"/>
-      <c r="AZ34" s="72"/>
+    <row r="34" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="24"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="82"/>
+      <c r="AF34" s="82"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36"/>
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
       <c r="BA34" s="12"/>
       <c r="BB34" s="12"/>
       <c r="BC34" s="13"/>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -6139,7 +6272,7 @@
       <c r="AJ35" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:BC34" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A4:BC34">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
@@ -6188,137 +6321,6 @@
     <filterColumn colId="50" showButton="0"/>
   </autoFilter>
   <mergeCells count="155">
-    <mergeCell ref="M33:AF33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:AF32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="AG21:AZ21"/>
-    <mergeCell ref="AG33:AZ33"/>
-    <mergeCell ref="AG34:AZ34"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="M18:AF18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="M19:AF19"/>
-    <mergeCell ref="AG18:AZ18"/>
-    <mergeCell ref="AG19:AZ19"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="M34:AF34"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:AF21"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="AG16:AZ16"/>
-    <mergeCell ref="AG17:AZ17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M14:AF14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="M15:AF15"/>
-    <mergeCell ref="AG14:AZ14"/>
-    <mergeCell ref="AG15:AZ15"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="M16:AF16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="M17:AF17"/>
-    <mergeCell ref="AG12:AZ12"/>
-    <mergeCell ref="AG13:AZ13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="M10:AF10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="M11:AF11"/>
-    <mergeCell ref="AG10:AZ10"/>
-    <mergeCell ref="AG11:AZ11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="M12:AF12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="M13:AF13"/>
-    <mergeCell ref="AG8:AZ8"/>
-    <mergeCell ref="AG9:AZ9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="M6:AF6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="M7:AF7"/>
-    <mergeCell ref="AG6:AZ6"/>
-    <mergeCell ref="AG7:AZ7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="M8:AF8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M9:AF9"/>
-    <mergeCell ref="AG4:AZ4"/>
-    <mergeCell ref="AG5:AZ5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="M4:AF4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="M5:AF5"/>
-    <mergeCell ref="AG32:AZ32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:AF30"/>
-    <mergeCell ref="AG30:AZ30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:AF31"/>
-    <mergeCell ref="AG31:AZ31"/>
-    <mergeCell ref="AG22:AZ22"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:AF29"/>
-    <mergeCell ref="AG29:AZ29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:AF28"/>
-    <mergeCell ref="AG28:AZ28"/>
-    <mergeCell ref="M26:AF26"/>
-    <mergeCell ref="AG26:AZ26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:AF27"/>
-    <mergeCell ref="AG27:AZ27"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="I20:L20"/>
@@ -6343,13 +6345,144 @@
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="M22:AF22"/>
+    <mergeCell ref="AG29:AZ29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:AF28"/>
+    <mergeCell ref="AG28:AZ28"/>
+    <mergeCell ref="M26:AF26"/>
+    <mergeCell ref="AG26:AZ26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:AF27"/>
+    <mergeCell ref="AG27:AZ27"/>
+    <mergeCell ref="AG4:AZ4"/>
+    <mergeCell ref="AG5:AZ5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="M4:AF4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="M5:AF5"/>
+    <mergeCell ref="AG8:AZ8"/>
+    <mergeCell ref="AG9:AZ9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="M6:AF6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="M7:AF7"/>
+    <mergeCell ref="AG6:AZ6"/>
+    <mergeCell ref="AG7:AZ7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="M8:AF8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M9:AF9"/>
+    <mergeCell ref="AG12:AZ12"/>
+    <mergeCell ref="AG13:AZ13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="M10:AF10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="M11:AF11"/>
+    <mergeCell ref="AG10:AZ10"/>
+    <mergeCell ref="AG11:AZ11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="M12:AF12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="M13:AF13"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M14:AF14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="M15:AF15"/>
+    <mergeCell ref="AG14:AZ14"/>
+    <mergeCell ref="AG15:AZ15"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="AG34:AZ34"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="AG18:AZ18"/>
+    <mergeCell ref="AG19:AZ19"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="M34:AF34"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:AF21"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="AG32:AZ32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="M33:AF33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:AF32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="AG33:AZ33"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:AF30"/>
+    <mergeCell ref="AG30:AZ30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:AF31"/>
+    <mergeCell ref="AG31:AZ31"/>
+    <mergeCell ref="AG22:AZ22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:AF29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:L6" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:L6">
       <formula1>"表紙,更新履歴,画面デザイン,入出力項目,処理概要,備考"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:L34" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:L34">
       <formula1>"表紙,更新履歴,画面デザイン,入出力項目,処理概要,備考,その他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/【勤怠管理システム】レビュー管理表.xlsx
+++ b/docs/【勤怠管理システム】レビュー管理表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86453BBC-9939-4C93-89CB-0068938F2D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="2"/>
+    <workbookView xWindow="1390" yWindow="700" windowWidth="11120" windowHeight="8860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">画面設計書!$A$4:$BC$34</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -967,7 +968,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -1438,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1511,6 +1512,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1980,27 +1984,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="9" width="3.625" style="1"/>
+    <col min="1" max="9" width="3.58203125" style="1"/>
     <col min="10" max="15" width="4.5" style="1" customWidth="1"/>
-    <col min="16" max="18" width="3.625" style="1"/>
+    <col min="16" max="18" width="3.58203125" style="1"/>
     <col min="19" max="24" width="4.5" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="3.625" style="1"/>
+    <col min="25" max="16384" width="3.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2035,7 +2039,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2045,23 +2049,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -2072,7 +2076,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2082,21 +2086,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -2107,7 +2111,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2117,21 +2121,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -2142,7 +2146,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2177,7 +2181,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2212,7 +2216,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2247,7 +2251,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2257,25 +2261,25 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27" t="s">
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2286,7 +2290,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2296,21 +2300,21 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -2321,7 +2325,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2356,7 +2360,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2391,7 +2395,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2426,7 +2430,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2459,7 +2463,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2469,29 +2473,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29" t="s">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="31" t="s">
+      <c r="R16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="29" t="s">
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2502,7 +2506,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2512,29 +2516,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="30">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="31">
         <v>44117</v>
       </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="28" t="s">
+      <c r="R17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="30">
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="31">
         <v>44117</v>
       </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2545,7 +2549,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2580,7 +2584,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2615,7 +2619,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2650,7 +2654,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2685,7 +2689,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2720,7 +2724,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2755,7 +2759,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2790,7 +2794,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2825,7 +2829,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2881,114 +2885,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="54" t="str">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="55" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="60" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="60"/>
-      <c r="X1" s="61" t="str">
+      <c r="W1" s="61"/>
+      <c r="X1" s="62" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60" t="s">
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="61">
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="62">
         <f>表紙!M17</f>
         <v>44117</v>
       </c>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60" t="s">
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61" t="str">
+      <c r="W2" s="61"/>
+      <c r="X2" s="62" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60" t="s">
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="61">
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="62">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3023,7 +3027,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -3050,7 +3054,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3085,688 +3089,688 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="38" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="37" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="37" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
-      <c r="B7" s="67">
+      <c r="B7" s="68">
         <v>1</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="62">
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="63">
         <v>44117</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="70" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="40" t="s">
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="43"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="42"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="43"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="42"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="43"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="42"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="43"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="42"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="43"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="42"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="43"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="42"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="43"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="42"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="43"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="42"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="43"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="42"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="43"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="45"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="46"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="42"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="43"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="42"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="43"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="42"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="43"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="42"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="43"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="42"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="43"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="42"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="43"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="34"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="35"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3801,7 +3805,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3927,30 +3931,30 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BC20" sqref="BC20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="51" width="3.625" style="1"/>
-    <col min="52" max="52" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="51" width="3.58203125" style="1"/>
+    <col min="52" max="52" width="3.58203125" style="1" customWidth="1"/>
     <col min="53" max="54" width="11.75" style="15" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="3.625" style="1"/>
+    <col min="56" max="16384" width="3.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3987,7 +3991,7 @@
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:55" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:55" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
@@ -4012,7 +4016,7 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
     </row>
-    <row r="3" spans="1:55" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:55" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -4049,71 +4053,71 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74" t="s">
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74" t="s">
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="75"/>
+      <c r="AU4" s="75"/>
+      <c r="AV4" s="75"/>
+      <c r="AW4" s="75"/>
+      <c r="AX4" s="75"/>
+      <c r="AY4" s="75"/>
+      <c r="AZ4" s="75"/>
       <c r="BA4" s="16" t="s">
         <v>27</v>
       </c>
@@ -4124,72 +4128,72 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="23">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80" t="s">
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81" t="s">
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="78" t="s">
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="78"/>
-      <c r="AQ5" s="78"/>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="78"/>
-      <c r="AT5" s="78"/>
-      <c r="AU5" s="78"/>
-      <c r="AV5" s="78"/>
-      <c r="AW5" s="78"/>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="78"/>
-      <c r="AZ5" s="78"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="79"/>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79"/>
       <c r="BA5" s="18">
         <v>44113</v>
       </c>
@@ -4200,72 +4204,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="23">
         <f t="shared" ref="A6:A26" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80" t="s">
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81" t="s">
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="78" t="s">
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="78"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="78"/>
-      <c r="AS6" s="78"/>
-      <c r="AT6" s="78"/>
-      <c r="AU6" s="78"/>
-      <c r="AV6" s="78"/>
-      <c r="AW6" s="78"/>
-      <c r="AX6" s="78"/>
-      <c r="AY6" s="78"/>
-      <c r="AZ6" s="78"/>
+      <c r="AH6" s="79"/>
+      <c r="AI6" s="79"/>
+      <c r="AJ6" s="79"/>
+      <c r="AK6" s="79"/>
+      <c r="AL6" s="79"/>
+      <c r="AM6" s="79"/>
+      <c r="AN6" s="79"/>
+      <c r="AO6" s="79"/>
+      <c r="AP6" s="79"/>
+      <c r="AQ6" s="79"/>
+      <c r="AR6" s="79"/>
+      <c r="AS6" s="79"/>
+      <c r="AT6" s="79"/>
+      <c r="AU6" s="79"/>
+      <c r="AV6" s="79"/>
+      <c r="AW6" s="79"/>
+      <c r="AX6" s="79"/>
+      <c r="AY6" s="79"/>
+      <c r="AZ6" s="79"/>
       <c r="BA6" s="18">
         <v>44113</v>
       </c>
@@ -4276,72 +4280,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81" t="s">
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="78" t="s">
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="78"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="79"/>
+      <c r="AP7" s="79"/>
+      <c r="AQ7" s="79"/>
+      <c r="AR7" s="79"/>
+      <c r="AS7" s="79"/>
+      <c r="AT7" s="79"/>
+      <c r="AU7" s="79"/>
+      <c r="AV7" s="79"/>
+      <c r="AW7" s="79"/>
+      <c r="AX7" s="79"/>
+      <c r="AY7" s="79"/>
+      <c r="AZ7" s="79"/>
       <c r="BA7" s="18">
         <v>44113</v>
       </c>
@@ -4352,72 +4356,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80" t="s">
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81" t="s">
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="78" t="s">
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="78"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="79"/>
+      <c r="AM8" s="79"/>
+      <c r="AN8" s="79"/>
+      <c r="AO8" s="79"/>
+      <c r="AP8" s="79"/>
+      <c r="AQ8" s="79"/>
+      <c r="AR8" s="79"/>
+      <c r="AS8" s="79"/>
+      <c r="AT8" s="79"/>
+      <c r="AU8" s="79"/>
+      <c r="AV8" s="79"/>
+      <c r="AW8" s="79"/>
+      <c r="AX8" s="79"/>
+      <c r="AY8" s="79"/>
+      <c r="AZ8" s="79"/>
       <c r="BA8" s="18">
         <v>44113</v>
       </c>
@@ -4428,72 +4432,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80" t="s">
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81" t="s">
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="81"/>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="81" t="s">
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="78"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="78"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="79"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="79"/>
+      <c r="AS9" s="79"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="79"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="79"/>
+      <c r="AZ9" s="79"/>
       <c r="BA9" s="18">
         <v>44113</v>
       </c>
@@ -4504,72 +4508,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80" t="s">
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81" t="s">
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="81" t="s">
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="78"/>
-      <c r="AO10" s="78"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="78"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="78"/>
-      <c r="AZ10" s="78"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
       <c r="BA10" s="18">
         <v>44113</v>
       </c>
@@ -4580,72 +4584,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80" t="s">
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81" t="s">
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="78" t="s">
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="78"/>
-      <c r="AZ11" s="78"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="79"/>
+      <c r="AS11" s="79"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="79"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="79"/>
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="79"/>
       <c r="BA11" s="18">
         <v>44113</v>
       </c>
@@ -4656,72 +4660,72 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80" t="s">
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81" t="s">
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="78" t="s">
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="79"/>
+      <c r="AS12" s="79"/>
+      <c r="AT12" s="79"/>
+      <c r="AU12" s="79"/>
+      <c r="AV12" s="79"/>
+      <c r="AW12" s="79"/>
+      <c r="AX12" s="79"/>
+      <c r="AY12" s="79"/>
+      <c r="AZ12" s="79"/>
       <c r="BA12" s="18">
         <v>44113</v>
       </c>
@@ -4732,72 +4736,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80" t="s">
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81" t="s">
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="78" t="s">
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="78"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="78"/>
-      <c r="AO13" s="78"/>
-      <c r="AP13" s="78"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="78"/>
-      <c r="AS13" s="78"/>
-      <c r="AT13" s="78"/>
-      <c r="AU13" s="78"/>
-      <c r="AV13" s="78"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="78"/>
-      <c r="AZ13" s="78"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="79"/>
+      <c r="AN13" s="79"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="79"/>
+      <c r="AQ13" s="79"/>
+      <c r="AR13" s="79"/>
+      <c r="AS13" s="79"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="79"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="79"/>
+      <c r="AY13" s="79"/>
+      <c r="AZ13" s="79"/>
       <c r="BA13" s="18">
         <v>44113</v>
       </c>
@@ -4808,72 +4812,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80" t="s">
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81" t="s">
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
-      <c r="AF14" s="81"/>
-      <c r="AG14" s="78" t="s">
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="78"/>
-      <c r="AM14" s="78"/>
-      <c r="AN14" s="78"/>
-      <c r="AO14" s="78"/>
-      <c r="AP14" s="78"/>
-      <c r="AQ14" s="78"/>
-      <c r="AR14" s="78"/>
-      <c r="AS14" s="78"/>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="78"/>
-      <c r="AZ14" s="78"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="79"/>
+      <c r="AP14" s="79"/>
+      <c r="AQ14" s="79"/>
+      <c r="AR14" s="79"/>
+      <c r="AS14" s="79"/>
+      <c r="AT14" s="79"/>
+      <c r="AU14" s="79"/>
+      <c r="AV14" s="79"/>
+      <c r="AW14" s="79"/>
+      <c r="AX14" s="79"/>
+      <c r="AY14" s="79"/>
+      <c r="AZ14" s="79"/>
       <c r="BA14" s="18">
         <v>44113</v>
       </c>
@@ -4884,72 +4888,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80" t="s">
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80" t="s">
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81" t="s">
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="78" t="s">
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="78"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="78"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="78"/>
-      <c r="AZ15" s="78"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="79"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="79"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="79"/>
+      <c r="AS15" s="79"/>
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="79"/>
+      <c r="AV15" s="79"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="79"/>
+      <c r="AY15" s="79"/>
+      <c r="AZ15" s="79"/>
       <c r="BA15" s="18">
         <v>44113</v>
       </c>
@@ -4960,72 +4964,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80" t="s">
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81" t="s">
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="78" t="s">
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="78"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="78"/>
-      <c r="AZ16" s="78"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="79"/>
+      <c r="AP16" s="79"/>
+      <c r="AQ16" s="79"/>
+      <c r="AR16" s="79"/>
+      <c r="AS16" s="79"/>
+      <c r="AT16" s="79"/>
+      <c r="AU16" s="79"/>
+      <c r="AV16" s="79"/>
+      <c r="AW16" s="79"/>
+      <c r="AX16" s="79"/>
+      <c r="AY16" s="79"/>
+      <c r="AZ16" s="79"/>
       <c r="BA16" s="18">
         <v>44113</v>
       </c>
@@ -5036,72 +5040,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:55" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80" t="s">
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81" t="s">
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="83" t="s">
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="78"/>
-      <c r="AZ17" s="78"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="79"/>
+      <c r="AM17" s="79"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="79"/>
+      <c r="AP17" s="79"/>
+      <c r="AQ17" s="79"/>
+      <c r="AR17" s="79"/>
+      <c r="AS17" s="79"/>
+      <c r="AT17" s="79"/>
+      <c r="AU17" s="79"/>
+      <c r="AV17" s="79"/>
+      <c r="AW17" s="79"/>
+      <c r="AX17" s="79"/>
+      <c r="AY17" s="79"/>
+      <c r="AZ17" s="79"/>
       <c r="BA17" s="18">
         <v>44113</v>
       </c>
@@ -5112,72 +5116,72 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:55" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80" t="s">
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80" t="s">
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81" t="s">
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="78" t="s">
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="78"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="78"/>
-      <c r="AZ18" s="78"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="79"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="79"/>
+      <c r="AS18" s="79"/>
+      <c r="AT18" s="79"/>
+      <c r="AU18" s="79"/>
+      <c r="AV18" s="79"/>
+      <c r="AW18" s="79"/>
+      <c r="AX18" s="79"/>
+      <c r="AY18" s="79"/>
+      <c r="AZ18" s="79"/>
       <c r="BA18" s="18">
         <v>44117</v>
       </c>
@@ -5188,72 +5192,72 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="19" spans="1:55" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:55" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80" t="s">
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81" t="s">
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="78" t="s">
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="78"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="78"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="78"/>
-      <c r="AR19" s="78"/>
-      <c r="AS19" s="78"/>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="78"/>
-      <c r="AZ19" s="78"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="79"/>
+      <c r="AM19" s="79"/>
+      <c r="AN19" s="79"/>
+      <c r="AO19" s="79"/>
+      <c r="AP19" s="79"/>
+      <c r="AQ19" s="79"/>
+      <c r="AR19" s="79"/>
+      <c r="AS19" s="79"/>
+      <c r="AT19" s="79"/>
+      <c r="AU19" s="79"/>
+      <c r="AV19" s="79"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="79"/>
+      <c r="AY19" s="79"/>
+      <c r="AZ19" s="79"/>
       <c r="BA19" s="18">
         <v>44117</v>
       </c>
@@ -5264,142 +5268,148 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="46" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46" t="s">
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="77" t="s">
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="47"/>
-      <c r="AP20" s="47"/>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="47"/>
-      <c r="AS20" s="47"/>
-      <c r="AT20" s="47"/>
-      <c r="AU20" s="47"/>
-      <c r="AV20" s="47"/>
-      <c r="AW20" s="47"/>
-      <c r="AX20" s="47"/>
-      <c r="AY20" s="47"/>
-      <c r="AZ20" s="47"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+      <c r="AZ20" s="48"/>
       <c r="BA20" s="9">
         <v>44117</v>
       </c>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="11"/>
-    </row>
-    <row r="21" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BB20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC20" s="25">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80" t="s">
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80" t="s">
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81" t="s">
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="78" t="s">
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="82"/>
+      <c r="AG21" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="78"/>
-      <c r="AZ21" s="78"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="79"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="79"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="79"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="79"/>
+      <c r="AZ21" s="79"/>
       <c r="BA21" s="18">
         <v>44117</v>
       </c>
@@ -5410,72 +5420,72 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="22" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80" t="s">
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80" t="s">
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="81" t="s">
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="78" t="s">
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="78"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="79"/>
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="79"/>
+      <c r="AZ22" s="79"/>
       <c r="BA22" s="18">
         <v>44117</v>
       </c>
@@ -5486,72 +5496,72 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="23" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80" t="s">
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80" t="s">
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="81" t="s">
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="87" t="s">
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="85"/>
-      <c r="AL23" s="85"/>
-      <c r="AM23" s="85"/>
-      <c r="AN23" s="85"/>
-      <c r="AO23" s="85"/>
-      <c r="AP23" s="85"/>
-      <c r="AQ23" s="85"/>
-      <c r="AR23" s="85"/>
-      <c r="AS23" s="85"/>
-      <c r="AT23" s="85"/>
-      <c r="AU23" s="85"/>
-      <c r="AV23" s="85"/>
-      <c r="AW23" s="85"/>
-      <c r="AX23" s="85"/>
-      <c r="AY23" s="85"/>
-      <c r="AZ23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="86"/>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="86"/>
+      <c r="AN23" s="86"/>
+      <c r="AO23" s="86"/>
+      <c r="AP23" s="86"/>
+      <c r="AQ23" s="86"/>
+      <c r="AR23" s="86"/>
+      <c r="AS23" s="86"/>
+      <c r="AT23" s="86"/>
+      <c r="AU23" s="86"/>
+      <c r="AV23" s="86"/>
+      <c r="AW23" s="86"/>
+      <c r="AX23" s="86"/>
+      <c r="AY23" s="86"/>
+      <c r="AZ23" s="87"/>
       <c r="BA23" s="18">
         <v>44117</v>
       </c>
@@ -5562,72 +5572,72 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="24" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80" t="s">
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80" t="s">
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="81" t="s">
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="84" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="AH24" s="85"/>
-      <c r="AI24" s="85"/>
-      <c r="AJ24" s="85"/>
-      <c r="AK24" s="85"/>
-      <c r="AL24" s="85"/>
-      <c r="AM24" s="85"/>
-      <c r="AN24" s="85"/>
-      <c r="AO24" s="85"/>
-      <c r="AP24" s="85"/>
-      <c r="AQ24" s="85"/>
-      <c r="AR24" s="85"/>
-      <c r="AS24" s="85"/>
-      <c r="AT24" s="85"/>
-      <c r="AU24" s="85"/>
-      <c r="AV24" s="85"/>
-      <c r="AW24" s="85"/>
-      <c r="AX24" s="85"/>
-      <c r="AY24" s="85"/>
-      <c r="AZ24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="86"/>
+      <c r="AK24" s="86"/>
+      <c r="AL24" s="86"/>
+      <c r="AM24" s="86"/>
+      <c r="AN24" s="86"/>
+      <c r="AO24" s="86"/>
+      <c r="AP24" s="86"/>
+      <c r="AQ24" s="86"/>
+      <c r="AR24" s="86"/>
+      <c r="AS24" s="86"/>
+      <c r="AT24" s="86"/>
+      <c r="AU24" s="86"/>
+      <c r="AV24" s="86"/>
+      <c r="AW24" s="86"/>
+      <c r="AX24" s="86"/>
+      <c r="AY24" s="86"/>
+      <c r="AZ24" s="87"/>
       <c r="BA24" s="18">
         <v>44117</v>
       </c>
@@ -5638,603 +5648,603 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="25" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="46" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46" t="s">
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="77" t="s">
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="47"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="47"/>
-      <c r="AL25" s="47"/>
-      <c r="AM25" s="47"/>
-      <c r="AN25" s="47"/>
-      <c r="AO25" s="47"/>
-      <c r="AP25" s="47"/>
-      <c r="AQ25" s="47"/>
-      <c r="AR25" s="47"/>
-      <c r="AS25" s="47"/>
-      <c r="AT25" s="47"/>
-      <c r="AU25" s="47"/>
-      <c r="AV25" s="47"/>
-      <c r="AW25" s="47"/>
-      <c r="AX25" s="47"/>
-      <c r="AY25" s="47"/>
-      <c r="AZ25" s="47"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="48"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="48"/>
+      <c r="AZ25" s="48"/>
       <c r="BA25" s="14">
         <v>44118</v>
       </c>
       <c r="BB25" s="10"/>
       <c r="BC25" s="11"/>
     </row>
-    <row r="26" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="46" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="77" t="s">
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="77"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="47"/>
-      <c r="AN26" s="47"/>
-      <c r="AO26" s="47"/>
-      <c r="AP26" s="47"/>
-      <c r="AQ26" s="47"/>
-      <c r="AR26" s="47"/>
-      <c r="AS26" s="47"/>
-      <c r="AT26" s="47"/>
-      <c r="AU26" s="47"/>
-      <c r="AV26" s="47"/>
-      <c r="AW26" s="47"/>
-      <c r="AX26" s="47"/>
-      <c r="AY26" s="47"/>
-      <c r="AZ26" s="47"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="78"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="48"/>
+      <c r="AS26" s="48"/>
+      <c r="AT26" s="48"/>
+      <c r="AU26" s="48"/>
+      <c r="AV26" s="48"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="48"/>
+      <c r="AY26" s="48"/>
+      <c r="AZ26" s="48"/>
       <c r="BA26" s="14">
         <v>44118</v>
       </c>
       <c r="BB26" s="10"/>
       <c r="BC26" s="11"/>
     </row>
-    <row r="27" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="21"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="47"/>
-      <c r="AI27" s="47"/>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="47"/>
-      <c r="AL27" s="47"/>
-      <c r="AM27" s="47"/>
-      <c r="AN27" s="47"/>
-      <c r="AO27" s="47"/>
-      <c r="AP27" s="47"/>
-      <c r="AQ27" s="47"/>
-      <c r="AR27" s="47"/>
-      <c r="AS27" s="47"/>
-      <c r="AT27" s="47"/>
-      <c r="AU27" s="47"/>
-      <c r="AV27" s="47"/>
-      <c r="AW27" s="47"/>
-      <c r="AX27" s="47"/>
-      <c r="AY27" s="47"/>
-      <c r="AZ27" s="47"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+      <c r="AS27" s="48"/>
+      <c r="AT27" s="48"/>
+      <c r="AU27" s="48"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="48"/>
+      <c r="AX27" s="48"/>
+      <c r="AY27" s="48"/>
+      <c r="AZ27" s="48"/>
       <c r="BA27" s="10"/>
       <c r="BB27" s="10"/>
       <c r="BC27" s="11"/>
     </row>
-    <row r="28" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="21"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="77"/>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="77"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="47"/>
-      <c r="AL28" s="47"/>
-      <c r="AM28" s="47"/>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="47"/>
-      <c r="AS28" s="47"/>
-      <c r="AT28" s="47"/>
-      <c r="AU28" s="47"/>
-      <c r="AV28" s="47"/>
-      <c r="AW28" s="47"/>
-      <c r="AX28" s="47"/>
-      <c r="AY28" s="47"/>
-      <c r="AZ28" s="47"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="48"/>
+      <c r="AX28" s="48"/>
+      <c r="AY28" s="48"/>
+      <c r="AZ28" s="48"/>
       <c r="BA28" s="10"/>
       <c r="BB28" s="10"/>
       <c r="BC28" s="11"/>
     </row>
-    <row r="29" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="21"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="47"/>
-      <c r="AL29" s="47"/>
-      <c r="AM29" s="47"/>
-      <c r="AN29" s="47"/>
-      <c r="AO29" s="47"/>
-      <c r="AP29" s="47"/>
-      <c r="AQ29" s="47"/>
-      <c r="AR29" s="47"/>
-      <c r="AS29" s="47"/>
-      <c r="AT29" s="47"/>
-      <c r="AU29" s="47"/>
-      <c r="AV29" s="47"/>
-      <c r="AW29" s="47"/>
-      <c r="AX29" s="47"/>
-      <c r="AY29" s="47"/>
-      <c r="AZ29" s="47"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="48"/>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="48"/>
+      <c r="AS29" s="48"/>
+      <c r="AT29" s="48"/>
+      <c r="AU29" s="48"/>
+      <c r="AV29" s="48"/>
+      <c r="AW29" s="48"/>
+      <c r="AX29" s="48"/>
+      <c r="AY29" s="48"/>
+      <c r="AZ29" s="48"/>
       <c r="BA29" s="10"/>
       <c r="BB29" s="10"/>
       <c r="BC29" s="11"/>
     </row>
-    <row r="30" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="21"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="47"/>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="47"/>
-      <c r="AL30" s="47"/>
-      <c r="AM30" s="47"/>
-      <c r="AN30" s="47"/>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
-      <c r="AT30" s="47"/>
-      <c r="AU30" s="47"/>
-      <c r="AV30" s="47"/>
-      <c r="AW30" s="47"/>
-      <c r="AX30" s="47"/>
-      <c r="AY30" s="47"/>
-      <c r="AZ30" s="47"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="48"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="48"/>
+      <c r="AP30" s="48"/>
+      <c r="AQ30" s="48"/>
+      <c r="AR30" s="48"/>
+      <c r="AS30" s="48"/>
+      <c r="AT30" s="48"/>
+      <c r="AU30" s="48"/>
+      <c r="AV30" s="48"/>
+      <c r="AW30" s="48"/>
+      <c r="AX30" s="48"/>
+      <c r="AY30" s="48"/>
+      <c r="AZ30" s="48"/>
       <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
       <c r="BC30" s="11"/>
     </row>
-    <row r="31" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="21"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="47"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="47"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="47"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47"/>
-      <c r="AS31" s="47"/>
-      <c r="AT31" s="47"/>
-      <c r="AU31" s="47"/>
-      <c r="AV31" s="47"/>
-      <c r="AW31" s="47"/>
-      <c r="AX31" s="47"/>
-      <c r="AY31" s="47"/>
-      <c r="AZ31" s="47"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="78"/>
+      <c r="AC31" s="78"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="48"/>
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="48"/>
+      <c r="AO31" s="48"/>
+      <c r="AP31" s="48"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="48"/>
+      <c r="AS31" s="48"/>
+      <c r="AT31" s="48"/>
+      <c r="AU31" s="48"/>
+      <c r="AV31" s="48"/>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="48"/>
+      <c r="AY31" s="48"/>
+      <c r="AZ31" s="48"/>
       <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
       <c r="BC31" s="11"/>
     </row>
-    <row r="32" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="21"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="77"/>
-      <c r="AG32" s="47"/>
-      <c r="AH32" s="47"/>
-      <c r="AI32" s="47"/>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="47"/>
-      <c r="AL32" s="47"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="47"/>
-      <c r="AP32" s="47"/>
-      <c r="AQ32" s="47"/>
-      <c r="AR32" s="47"/>
-      <c r="AS32" s="47"/>
-      <c r="AT32" s="47"/>
-      <c r="AU32" s="47"/>
-      <c r="AV32" s="47"/>
-      <c r="AW32" s="47"/>
-      <c r="AX32" s="47"/>
-      <c r="AY32" s="47"/>
-      <c r="AZ32" s="47"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="78"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="78"/>
+      <c r="AE32" s="78"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="48"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="48"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="48"/>
+      <c r="AP32" s="48"/>
+      <c r="AQ32" s="48"/>
+      <c r="AR32" s="48"/>
+      <c r="AS32" s="48"/>
+      <c r="AT32" s="48"/>
+      <c r="AU32" s="48"/>
+      <c r="AV32" s="48"/>
+      <c r="AW32" s="48"/>
+      <c r="AX32" s="48"/>
+      <c r="AY32" s="48"/>
+      <c r="AZ32" s="48"/>
       <c r="BA32" s="10"/>
       <c r="BB32" s="10"/>
       <c r="BC32" s="11"/>
     </row>
-    <row r="33" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="21"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="77"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="77"/>
-      <c r="AF33" s="77"/>
-      <c r="AG33" s="47"/>
-      <c r="AH33" s="47"/>
-      <c r="AI33" s="47"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="47"/>
-      <c r="AL33" s="47"/>
-      <c r="AM33" s="47"/>
-      <c r="AN33" s="47"/>
-      <c r="AO33" s="47"/>
-      <c r="AP33" s="47"/>
-      <c r="AQ33" s="47"/>
-      <c r="AR33" s="47"/>
-      <c r="AS33" s="47"/>
-      <c r="AT33" s="47"/>
-      <c r="AU33" s="47"/>
-      <c r="AV33" s="47"/>
-      <c r="AW33" s="47"/>
-      <c r="AX33" s="47"/>
-      <c r="AY33" s="47"/>
-      <c r="AZ33" s="47"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78"/>
+      <c r="AB33" s="78"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="78"/>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="48"/>
+      <c r="AI33" s="48"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="48"/>
+      <c r="AO33" s="48"/>
+      <c r="AP33" s="48"/>
+      <c r="AQ33" s="48"/>
+      <c r="AR33" s="48"/>
+      <c r="AS33" s="48"/>
+      <c r="AT33" s="48"/>
+      <c r="AU33" s="48"/>
+      <c r="AV33" s="48"/>
+      <c r="AW33" s="48"/>
+      <c r="AX33" s="48"/>
+      <c r="AY33" s="48"/>
+      <c r="AZ33" s="48"/>
       <c r="BA33" s="10"/>
       <c r="BB33" s="10"/>
       <c r="BC33" s="11"/>
     </row>
-    <row r="34" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="24"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="82"/>
-      <c r="Z34" s="82"/>
-      <c r="AA34" s="82"/>
-      <c r="AB34" s="82"/>
-      <c r="AC34" s="82"/>
-      <c r="AD34" s="82"/>
-      <c r="AE34" s="82"/>
-      <c r="AF34" s="82"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36"/>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="36"/>
-      <c r="AY34" s="36"/>
-      <c r="AZ34" s="36"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="83"/>
+      <c r="AF34" s="83"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
       <c r="BA34" s="12"/>
       <c r="BB34" s="12"/>
       <c r="BC34" s="13"/>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -6272,7 +6282,7 @@
       <c r="AJ35" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:BC34">
+  <autoFilter ref="A4:BC34" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
@@ -6479,10 +6489,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:L6" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"表紙,更新履歴,画面デザイン,入出力項目,処理概要,備考"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:L34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:L34" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"表紙,更新履歴,画面デザイン,入出力項目,処理概要,備考,その他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/【勤怠管理システム】レビュー管理表.xlsx
+++ b/docs/【勤怠管理システム】レビュー管理表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86453BBC-9939-4C93-89CB-0068938F2D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1390" yWindow="700" windowWidth="11120" windowHeight="8860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="705" windowWidth="11115" windowHeight="8865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -968,7 +967,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -1439,7 +1438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1465,245 +1464,242 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1984,27 +1980,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="9" width="3.58203125" style="1"/>
+    <col min="1" max="9" width="3.625" style="1"/>
     <col min="10" max="15" width="4.5" style="1" customWidth="1"/>
-    <col min="16" max="18" width="3.58203125" style="1"/>
+    <col min="16" max="18" width="3.625" style="1"/>
     <col min="19" max="24" width="4.5" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="3.58203125" style="1"/>
+    <col min="25" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2039,7 +2035,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2049,23 +2045,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -2076,7 +2072,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2086,21 +2082,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -2111,7 +2107,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2121,21 +2117,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -2146,7 +2142,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2181,7 +2177,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2216,7 +2212,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2251,7 +2247,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2261,25 +2257,25 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2290,7 +2286,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2300,21 +2296,21 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -2325,7 +2321,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2360,7 +2356,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2395,7 +2391,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2430,7 +2426,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2463,7 +2459,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2473,29 +2469,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30" t="s">
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="30" t="s">
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2506,7 +2502,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2516,29 +2512,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="31">
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="30">
         <v>44117</v>
       </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="31">
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="30">
         <v>44117</v>
       </c>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2549,7 +2545,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2584,7 +2580,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2619,7 +2615,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2654,7 +2650,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2689,7 +2685,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2724,7 +2720,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2759,7 +2755,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2794,7 +2790,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2829,7 +2825,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2885,114 +2881,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="1"/>
+    <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="55" t="str">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="59" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="61" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="62" t="str">
+      <c r="W1" s="52"/>
+      <c r="X1" s="51" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61" t="s">
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="62">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="51">
         <f>表紙!M17</f>
         <v>44117</v>
       </c>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="61" t="s">
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="61"/>
-      <c r="X2" s="62" t="str">
+      <c r="W2" s="52"/>
+      <c r="X2" s="51" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="62">
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="51">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3027,7 +3023,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -3054,7 +3050,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3089,688 +3085,688 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="39" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="38" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="40"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="73"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="68">
+      <c r="B7" s="41">
         <v>1</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="63">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="38">
         <v>44117</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="71" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="41" t="s">
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="43"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="67"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="43"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="67"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="43"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="67"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="43"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="67"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="43"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="67"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="43"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="67"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="43"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="67"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="43"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="67"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="43"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="67"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="43"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="67"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="46"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="76"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="43"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="67"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="43"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="67"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="43"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="67"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="43"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="67"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="43"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="67"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="43"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="67"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="35"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="69"/>
+      <c r="AE24" s="70"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3805,7 +3801,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3842,18 +3838,64 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AB24"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AB22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AB23"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="I6:AB6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
@@ -3870,64 +3912,18 @@
     <mergeCell ref="I7:AB7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="I12:AB12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AB22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AB23"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AB24"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3936,25 +3932,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC20" sqref="BC20"/>
+      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG25" sqref="AG25:AZ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="51" width="3.58203125" style="1"/>
-    <col min="52" max="52" width="3.58203125" style="1" customWidth="1"/>
-    <col min="53" max="54" width="11.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="3.58203125" style="1"/>
+    <col min="2" max="51" width="3.625" style="1"/>
+    <col min="52" max="52" width="3.625" style="1" customWidth="1"/>
+    <col min="53" max="54" width="11.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3991,7 +3987,7 @@
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:55" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:55" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
@@ -4016,7 +4012,7 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
     </row>
-    <row r="3" spans="1:55" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:55" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -4053,2198 +4049,2198 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:55" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:55" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75" t="s">
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="75"/>
-      <c r="AT4" s="75"/>
-      <c r="AU4" s="75"/>
-      <c r="AV4" s="75"/>
-      <c r="AW4" s="75"/>
-      <c r="AX4" s="75"/>
-      <c r="AY4" s="75"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="16" t="s">
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BB4" s="16" t="s">
+      <c r="BB4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BC4" s="17" t="s">
+      <c r="BC4" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="23">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A5" s="22">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="82" t="s">
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="79" t="s">
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="18">
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="85"/>
+      <c r="AO5" s="85"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="85"/>
+      <c r="AR5" s="85"/>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="85"/>
+      <c r="AX5" s="85"/>
+      <c r="AY5" s="85"/>
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="17">
         <v>44113</v>
       </c>
-      <c r="BB5" s="19" t="s">
+      <c r="BB5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC5" s="20">
+      <c r="BC5" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="23">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A6" s="22">
         <f t="shared" ref="A6:A26" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82" t="s">
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="79" t="s">
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="AH6" s="79"/>
-      <c r="AI6" s="79"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="79"/>
-      <c r="AL6" s="79"/>
-      <c r="AM6" s="79"/>
-      <c r="AN6" s="79"/>
-      <c r="AO6" s="79"/>
-      <c r="AP6" s="79"/>
-      <c r="AQ6" s="79"/>
-      <c r="AR6" s="79"/>
-      <c r="AS6" s="79"/>
-      <c r="AT6" s="79"/>
-      <c r="AU6" s="79"/>
-      <c r="AV6" s="79"/>
-      <c r="AW6" s="79"/>
-      <c r="AX6" s="79"/>
-      <c r="AY6" s="79"/>
-      <c r="AZ6" s="79"/>
-      <c r="BA6" s="18">
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="85"/>
+      <c r="AP6" s="85"/>
+      <c r="AQ6" s="85"/>
+      <c r="AR6" s="85"/>
+      <c r="AS6" s="85"/>
+      <c r="AT6" s="85"/>
+      <c r="AU6" s="85"/>
+      <c r="AV6" s="85"/>
+      <c r="AW6" s="85"/>
+      <c r="AX6" s="85"/>
+      <c r="AY6" s="85"/>
+      <c r="AZ6" s="85"/>
+      <c r="BA6" s="17">
         <v>44113</v>
       </c>
-      <c r="BB6" s="19" t="s">
+      <c r="BB6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC6" s="20">
+      <c r="BC6" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="23">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A7" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="82" t="s">
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="79" t="s">
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AP7" s="79"/>
-      <c r="AQ7" s="79"/>
-      <c r="AR7" s="79"/>
-      <c r="AS7" s="79"/>
-      <c r="AT7" s="79"/>
-      <c r="AU7" s="79"/>
-      <c r="AV7" s="79"/>
-      <c r="AW7" s="79"/>
-      <c r="AX7" s="79"/>
-      <c r="AY7" s="79"/>
-      <c r="AZ7" s="79"/>
-      <c r="BA7" s="18">
+      <c r="AH7" s="85"/>
+      <c r="AI7" s="85"/>
+      <c r="AJ7" s="85"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="85"/>
+      <c r="AM7" s="85"/>
+      <c r="AN7" s="85"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="85"/>
+      <c r="AQ7" s="85"/>
+      <c r="AR7" s="85"/>
+      <c r="AS7" s="85"/>
+      <c r="AT7" s="85"/>
+      <c r="AU7" s="85"/>
+      <c r="AV7" s="85"/>
+      <c r="AW7" s="85"/>
+      <c r="AX7" s="85"/>
+      <c r="AY7" s="85"/>
+      <c r="AZ7" s="85"/>
+      <c r="BA7" s="17">
         <v>44113</v>
       </c>
-      <c r="BB7" s="19" t="s">
+      <c r="BB7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC7" s="20">
+      <c r="BC7" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="23">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="82" t="s">
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="79" t="s">
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="79"/>
-      <c r="AQ8" s="79"/>
-      <c r="AR8" s="79"/>
-      <c r="AS8" s="79"/>
-      <c r="AT8" s="79"/>
-      <c r="AU8" s="79"/>
-      <c r="AV8" s="79"/>
-      <c r="AW8" s="79"/>
-      <c r="AX8" s="79"/>
-      <c r="AY8" s="79"/>
-      <c r="AZ8" s="79"/>
-      <c r="BA8" s="18">
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="85"/>
+      <c r="AZ8" s="85"/>
+      <c r="BA8" s="17">
         <v>44113</v>
       </c>
-      <c r="BB8" s="19" t="s">
+      <c r="BB8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC8" s="20">
+      <c r="BC8" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23">
+    <row r="9" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82" t="s">
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82" t="s">
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="79"/>
-      <c r="AM9" s="79"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="79"/>
-      <c r="AP9" s="79"/>
-      <c r="AQ9" s="79"/>
-      <c r="AR9" s="79"/>
-      <c r="AS9" s="79"/>
-      <c r="AT9" s="79"/>
-      <c r="AU9" s="79"/>
-      <c r="AV9" s="79"/>
-      <c r="AW9" s="79"/>
-      <c r="AX9" s="79"/>
-      <c r="AY9" s="79"/>
-      <c r="AZ9" s="79"/>
-      <c r="BA9" s="18">
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="85"/>
+      <c r="AQ9" s="85"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="17">
         <v>44113</v>
       </c>
-      <c r="BB9" s="19" t="s">
+      <c r="BB9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC9" s="20">
+      <c r="BC9" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="23">
+    <row r="10" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82" t="s">
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82" t="s">
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="18">
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="85"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="85"/>
+      <c r="AT10" s="85"/>
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="17">
         <v>44113</v>
       </c>
-      <c r="BB10" s="19" t="s">
+      <c r="BB10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC10" s="20">
+      <c r="BC10" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="23">
+    <row r="11" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81" t="s">
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82" t="s">
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="79" t="s">
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="79"/>
-      <c r="AM11" s="79"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="79"/>
-      <c r="AP11" s="79"/>
-      <c r="AQ11" s="79"/>
-      <c r="AR11" s="79"/>
-      <c r="AS11" s="79"/>
-      <c r="AT11" s="79"/>
-      <c r="AU11" s="79"/>
-      <c r="AV11" s="79"/>
-      <c r="AW11" s="79"/>
-      <c r="AX11" s="79"/>
-      <c r="AY11" s="79"/>
-      <c r="AZ11" s="79"/>
-      <c r="BA11" s="18">
+      <c r="AH11" s="85"/>
+      <c r="AI11" s="85"/>
+      <c r="AJ11" s="85"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="85"/>
+      <c r="AM11" s="85"/>
+      <c r="AN11" s="85"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="85"/>
+      <c r="AR11" s="85"/>
+      <c r="AS11" s="85"/>
+      <c r="AT11" s="85"/>
+      <c r="AU11" s="85"/>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="17">
         <v>44113</v>
       </c>
-      <c r="BB11" s="19" t="s">
+      <c r="BB11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC11" s="20">
+      <c r="BC11" s="19">
         <v>44118</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="23">
+    <row r="12" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81" t="s">
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82" t="s">
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="79" t="s">
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="79"/>
-      <c r="AM12" s="79"/>
-      <c r="AN12" s="79"/>
-      <c r="AO12" s="79"/>
-      <c r="AP12" s="79"/>
-      <c r="AQ12" s="79"/>
-      <c r="AR12" s="79"/>
-      <c r="AS12" s="79"/>
-      <c r="AT12" s="79"/>
-      <c r="AU12" s="79"/>
-      <c r="AV12" s="79"/>
-      <c r="AW12" s="79"/>
-      <c r="AX12" s="79"/>
-      <c r="AY12" s="79"/>
-      <c r="AZ12" s="79"/>
-      <c r="BA12" s="18">
+      <c r="AH12" s="85"/>
+      <c r="AI12" s="85"/>
+      <c r="AJ12" s="85"/>
+      <c r="AK12" s="85"/>
+      <c r="AL12" s="85"/>
+      <c r="AM12" s="85"/>
+      <c r="AN12" s="85"/>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="85"/>
+      <c r="AQ12" s="85"/>
+      <c r="AR12" s="85"/>
+      <c r="AS12" s="85"/>
+      <c r="AT12" s="85"/>
+      <c r="AU12" s="85"/>
+      <c r="AV12" s="85"/>
+      <c r="AW12" s="85"/>
+      <c r="AX12" s="85"/>
+      <c r="AY12" s="85"/>
+      <c r="AZ12" s="85"/>
+      <c r="BA12" s="17">
         <v>44113</v>
       </c>
-      <c r="BB12" s="19" t="s">
+      <c r="BB12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC12" s="20">
+      <c r="BC12" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="23">
+    <row r="13" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81" t="s">
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81" t="s">
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="82" t="s">
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="79" t="s">
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="79"/>
-      <c r="AM13" s="79"/>
-      <c r="AN13" s="79"/>
-      <c r="AO13" s="79"/>
-      <c r="AP13" s="79"/>
-      <c r="AQ13" s="79"/>
-      <c r="AR13" s="79"/>
-      <c r="AS13" s="79"/>
-      <c r="AT13" s="79"/>
-      <c r="AU13" s="79"/>
-      <c r="AV13" s="79"/>
-      <c r="AW13" s="79"/>
-      <c r="AX13" s="79"/>
-      <c r="AY13" s="79"/>
-      <c r="AZ13" s="79"/>
-      <c r="BA13" s="18">
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="85"/>
+      <c r="AK13" s="85"/>
+      <c r="AL13" s="85"/>
+      <c r="AM13" s="85"/>
+      <c r="AN13" s="85"/>
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="85"/>
+      <c r="AQ13" s="85"/>
+      <c r="AR13" s="85"/>
+      <c r="AS13" s="85"/>
+      <c r="AT13" s="85"/>
+      <c r="AU13" s="85"/>
+      <c r="AV13" s="85"/>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="85"/>
+      <c r="AY13" s="85"/>
+      <c r="AZ13" s="85"/>
+      <c r="BA13" s="17">
         <v>44113</v>
       </c>
-      <c r="BB13" s="19" t="s">
+      <c r="BB13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BC13" s="20">
+      <c r="BC13" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="23">
+    <row r="14" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81" t="s">
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="82" t="s">
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="79" t="s">
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="79"/>
-      <c r="AM14" s="79"/>
-      <c r="AN14" s="79"/>
-      <c r="AO14" s="79"/>
-      <c r="AP14" s="79"/>
-      <c r="AQ14" s="79"/>
-      <c r="AR14" s="79"/>
-      <c r="AS14" s="79"/>
-      <c r="AT14" s="79"/>
-      <c r="AU14" s="79"/>
-      <c r="AV14" s="79"/>
-      <c r="AW14" s="79"/>
-      <c r="AX14" s="79"/>
-      <c r="AY14" s="79"/>
-      <c r="AZ14" s="79"/>
-      <c r="BA14" s="18">
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="85"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="85"/>
+      <c r="AM14" s="85"/>
+      <c r="AN14" s="85"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="85"/>
+      <c r="AQ14" s="85"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="85"/>
+      <c r="AU14" s="85"/>
+      <c r="AV14" s="85"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="17">
         <v>44113</v>
       </c>
-      <c r="BB14" s="19" t="s">
+      <c r="BB14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BC14" s="20">
+      <c r="BC14" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="23">
+    <row r="15" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81" t="s">
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82" t="s">
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="79" t="s">
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="79"/>
-      <c r="AM15" s="79"/>
-      <c r="AN15" s="79"/>
-      <c r="AO15" s="79"/>
-      <c r="AP15" s="79"/>
-      <c r="AQ15" s="79"/>
-      <c r="AR15" s="79"/>
-      <c r="AS15" s="79"/>
-      <c r="AT15" s="79"/>
-      <c r="AU15" s="79"/>
-      <c r="AV15" s="79"/>
-      <c r="AW15" s="79"/>
-      <c r="AX15" s="79"/>
-      <c r="AY15" s="79"/>
-      <c r="AZ15" s="79"/>
-      <c r="BA15" s="18">
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="85"/>
+      <c r="AL15" s="85"/>
+      <c r="AM15" s="85"/>
+      <c r="AN15" s="85"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="85"/>
+      <c r="AQ15" s="85"/>
+      <c r="AR15" s="85"/>
+      <c r="AS15" s="85"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="85"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="85"/>
+      <c r="AX15" s="85"/>
+      <c r="AY15" s="85"/>
+      <c r="AZ15" s="85"/>
+      <c r="BA15" s="17">
         <v>44113</v>
       </c>
-      <c r="BB15" s="19" t="s">
+      <c r="BB15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BC15" s="20">
+      <c r="BC15" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="23">
+    <row r="16" spans="1:55" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81" t="s">
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82" t="s">
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="79" t="s">
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="79"/>
-      <c r="AM16" s="79"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="79"/>
-      <c r="AP16" s="79"/>
-      <c r="AQ16" s="79"/>
-      <c r="AR16" s="79"/>
-      <c r="AS16" s="79"/>
-      <c r="AT16" s="79"/>
-      <c r="AU16" s="79"/>
-      <c r="AV16" s="79"/>
-      <c r="AW16" s="79"/>
-      <c r="AX16" s="79"/>
-      <c r="AY16" s="79"/>
-      <c r="AZ16" s="79"/>
-      <c r="BA16" s="18">
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="85"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="85"/>
+      <c r="AL16" s="85"/>
+      <c r="AM16" s="85"/>
+      <c r="AN16" s="85"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="85"/>
+      <c r="AQ16" s="85"/>
+      <c r="AR16" s="85"/>
+      <c r="AS16" s="85"/>
+      <c r="AT16" s="85"/>
+      <c r="AU16" s="85"/>
+      <c r="AV16" s="85"/>
+      <c r="AW16" s="85"/>
+      <c r="AX16" s="85"/>
+      <c r="AY16" s="85"/>
+      <c r="AZ16" s="85"/>
+      <c r="BA16" s="17">
         <v>44113</v>
       </c>
-      <c r="BB16" s="19" t="s">
+      <c r="BB16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BC16" s="20">
+      <c r="BC16" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="23">
+    <row r="17" spans="1:55" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81" t="s">
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81" t="s">
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="82" t="s">
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="84" t="s">
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="79"/>
-      <c r="AM17" s="79"/>
-      <c r="AN17" s="79"/>
-      <c r="AO17" s="79"/>
-      <c r="AP17" s="79"/>
-      <c r="AQ17" s="79"/>
-      <c r="AR17" s="79"/>
-      <c r="AS17" s="79"/>
-      <c r="AT17" s="79"/>
-      <c r="AU17" s="79"/>
-      <c r="AV17" s="79"/>
-      <c r="AW17" s="79"/>
-      <c r="AX17" s="79"/>
-      <c r="AY17" s="79"/>
-      <c r="AZ17" s="79"/>
-      <c r="BA17" s="18">
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="85"/>
+      <c r="AN17" s="85"/>
+      <c r="AO17" s="85"/>
+      <c r="AP17" s="85"/>
+      <c r="AQ17" s="85"/>
+      <c r="AR17" s="85"/>
+      <c r="AS17" s="85"/>
+      <c r="AT17" s="85"/>
+      <c r="AU17" s="85"/>
+      <c r="AV17" s="85"/>
+      <c r="AW17" s="85"/>
+      <c r="AX17" s="85"/>
+      <c r="AY17" s="85"/>
+      <c r="AZ17" s="85"/>
+      <c r="BA17" s="17">
         <v>44113</v>
       </c>
-      <c r="BB17" s="19" t="s">
+      <c r="BB17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BC17" s="20">
+      <c r="BC17" s="19">
         <v>44116</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="23">
+    <row r="18" spans="1:55" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82" t="s">
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="79" t="s">
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="79"/>
-      <c r="AP18" s="79"/>
-      <c r="AQ18" s="79"/>
-      <c r="AR18" s="79"/>
-      <c r="AS18" s="79"/>
-      <c r="AT18" s="79"/>
-      <c r="AU18" s="79"/>
-      <c r="AV18" s="79"/>
-      <c r="AW18" s="79"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="79"/>
-      <c r="AZ18" s="79"/>
-      <c r="BA18" s="18">
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="85"/>
+      <c r="AL18" s="85"/>
+      <c r="AM18" s="85"/>
+      <c r="AN18" s="85"/>
+      <c r="AO18" s="85"/>
+      <c r="AP18" s="85"/>
+      <c r="AQ18" s="85"/>
+      <c r="AR18" s="85"/>
+      <c r="AS18" s="85"/>
+      <c r="AT18" s="85"/>
+      <c r="AU18" s="85"/>
+      <c r="AV18" s="85"/>
+      <c r="AW18" s="85"/>
+      <c r="AX18" s="85"/>
+      <c r="AY18" s="85"/>
+      <c r="AZ18" s="85"/>
+      <c r="BA18" s="17">
         <v>44117</v>
       </c>
-      <c r="BB18" s="19" t="s">
+      <c r="BB18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC18" s="20">
+      <c r="BC18" s="19">
         <v>44118</v>
       </c>
     </row>
-    <row r="19" spans="1:55" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="23">
+    <row r="19" spans="1:55" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81" t="s">
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81" t="s">
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82" t="s">
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="82"/>
-      <c r="AC19" s="82"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="79" t="s">
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="79"/>
-      <c r="AN19" s="79"/>
-      <c r="AO19" s="79"/>
-      <c r="AP19" s="79"/>
-      <c r="AQ19" s="79"/>
-      <c r="AR19" s="79"/>
-      <c r="AS19" s="79"/>
-      <c r="AT19" s="79"/>
-      <c r="AU19" s="79"/>
-      <c r="AV19" s="79"/>
-      <c r="AW19" s="79"/>
-      <c r="AX19" s="79"/>
-      <c r="AY19" s="79"/>
-      <c r="AZ19" s="79"/>
-      <c r="BA19" s="18">
+      <c r="AH19" s="85"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="85"/>
+      <c r="AM19" s="85"/>
+      <c r="AN19" s="85"/>
+      <c r="AO19" s="85"/>
+      <c r="AP19" s="85"/>
+      <c r="AQ19" s="85"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="85"/>
+      <c r="AT19" s="85"/>
+      <c r="AU19" s="85"/>
+      <c r="AV19" s="85"/>
+      <c r="AW19" s="85"/>
+      <c r="AX19" s="85"/>
+      <c r="AY19" s="85"/>
+      <c r="AZ19" s="85"/>
+      <c r="BA19" s="17">
         <v>44117</v>
       </c>
-      <c r="BB19" s="19" t="s">
+      <c r="BB19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC19" s="20">
+      <c r="BC19" s="19">
         <v>44118</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="21">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="47" t="s">
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47" t="s">
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="78" t="s">
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="48" t="s">
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="48"/>
-      <c r="AZ20" s="48"/>
-      <c r="BA20" s="9">
+      <c r="AH20" s="85"/>
+      <c r="AI20" s="85"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="85"/>
+      <c r="AN20" s="85"/>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="85"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="85"/>
+      <c r="AT20" s="85"/>
+      <c r="AU20" s="85"/>
+      <c r="AV20" s="85"/>
+      <c r="AW20" s="85"/>
+      <c r="AX20" s="85"/>
+      <c r="AY20" s="85"/>
+      <c r="AZ20" s="85"/>
+      <c r="BA20" s="24">
         <v>44117</v>
       </c>
-      <c r="BB20" s="10" t="s">
+      <c r="BB20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC20" s="25">
+      <c r="BC20" s="19">
         <v>44118</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="23">
+    <row r="21" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81" t="s">
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81" t="s">
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82" t="s">
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="79" t="s">
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="79"/>
-      <c r="AK21" s="79"/>
-      <c r="AL21" s="79"/>
-      <c r="AM21" s="79"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="79"/>
-      <c r="AP21" s="79"/>
-      <c r="AQ21" s="79"/>
-      <c r="AR21" s="79"/>
-      <c r="AS21" s="79"/>
-      <c r="AT21" s="79"/>
-      <c r="AU21" s="79"/>
-      <c r="AV21" s="79"/>
-      <c r="AW21" s="79"/>
-      <c r="AX21" s="79"/>
-      <c r="AY21" s="79"/>
-      <c r="AZ21" s="79"/>
-      <c r="BA21" s="18">
+      <c r="AH21" s="85"/>
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="85"/>
+      <c r="AM21" s="85"/>
+      <c r="AN21" s="85"/>
+      <c r="AO21" s="85"/>
+      <c r="AP21" s="85"/>
+      <c r="AQ21" s="85"/>
+      <c r="AR21" s="85"/>
+      <c r="AS21" s="85"/>
+      <c r="AT21" s="85"/>
+      <c r="AU21" s="85"/>
+      <c r="AV21" s="85"/>
+      <c r="AW21" s="85"/>
+      <c r="AX21" s="85"/>
+      <c r="AY21" s="85"/>
+      <c r="AZ21" s="85"/>
+      <c r="BA21" s="17">
         <v>44117</v>
       </c>
-      <c r="BB21" s="19" t="s">
+      <c r="BB21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC21" s="20">
+      <c r="BC21" s="19">
         <v>44118</v>
       </c>
     </row>
-    <row r="22" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="23">
+    <row r="22" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81" t="s">
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81" t="s">
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82" t="s">
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="79" t="s">
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="80"/>
+      <c r="AF22" s="80"/>
+      <c r="AG22" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="79"/>
-      <c r="AL22" s="79"/>
-      <c r="AM22" s="79"/>
-      <c r="AN22" s="79"/>
-      <c r="AO22" s="79"/>
-      <c r="AP22" s="79"/>
-      <c r="AQ22" s="79"/>
-      <c r="AR22" s="79"/>
-      <c r="AS22" s="79"/>
-      <c r="AT22" s="79"/>
-      <c r="AU22" s="79"/>
-      <c r="AV22" s="79"/>
-      <c r="AW22" s="79"/>
-      <c r="AX22" s="79"/>
-      <c r="AY22" s="79"/>
-      <c r="AZ22" s="79"/>
-      <c r="BA22" s="18">
+      <c r="AH22" s="85"/>
+      <c r="AI22" s="85"/>
+      <c r="AJ22" s="85"/>
+      <c r="AK22" s="85"/>
+      <c r="AL22" s="85"/>
+      <c r="AM22" s="85"/>
+      <c r="AN22" s="85"/>
+      <c r="AO22" s="85"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="85"/>
+      <c r="AR22" s="85"/>
+      <c r="AS22" s="85"/>
+      <c r="AT22" s="85"/>
+      <c r="AU22" s="85"/>
+      <c r="AV22" s="85"/>
+      <c r="AW22" s="85"/>
+      <c r="AX22" s="85"/>
+      <c r="AY22" s="85"/>
+      <c r="AZ22" s="85"/>
+      <c r="BA22" s="17">
         <v>44117</v>
       </c>
-      <c r="BB22" s="19" t="s">
+      <c r="BB22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BC22" s="20">
+      <c r="BC22" s="19">
         <v>44118</v>
       </c>
     </row>
-    <row r="23" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="23">
+    <row r="23" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81" t="s">
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81" t="s">
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="82" t="s">
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="88" t="s">
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
+      <c r="AG23" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="86"/>
-      <c r="AK23" s="86"/>
-      <c r="AL23" s="86"/>
-      <c r="AM23" s="86"/>
-      <c r="AN23" s="86"/>
-      <c r="AO23" s="86"/>
-      <c r="AP23" s="86"/>
-      <c r="AQ23" s="86"/>
-      <c r="AR23" s="86"/>
-      <c r="AS23" s="86"/>
-      <c r="AT23" s="86"/>
-      <c r="AU23" s="86"/>
-      <c r="AV23" s="86"/>
-      <c r="AW23" s="86"/>
-      <c r="AX23" s="86"/>
-      <c r="AY23" s="86"/>
-      <c r="AZ23" s="87"/>
-      <c r="BA23" s="18">
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="82"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="82"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="82"/>
+      <c r="AW23" s="82"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="83"/>
+      <c r="BA23" s="17">
         <v>44117</v>
       </c>
-      <c r="BB23" s="19" t="s">
+      <c r="BB23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BC23" s="20">
+      <c r="BC23" s="19">
         <v>44118</v>
       </c>
     </row>
-    <row r="24" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="23">
+    <row r="24" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81" t="s">
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81" t="s">
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="82" t="s">
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="85" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="80"/>
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="80"/>
+      <c r="AG24" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="AH24" s="86"/>
-      <c r="AI24" s="86"/>
-      <c r="AJ24" s="86"/>
-      <c r="AK24" s="86"/>
-      <c r="AL24" s="86"/>
-      <c r="AM24" s="86"/>
-      <c r="AN24" s="86"/>
-      <c r="AO24" s="86"/>
-      <c r="AP24" s="86"/>
-      <c r="AQ24" s="86"/>
-      <c r="AR24" s="86"/>
-      <c r="AS24" s="86"/>
-      <c r="AT24" s="86"/>
-      <c r="AU24" s="86"/>
-      <c r="AV24" s="86"/>
-      <c r="AW24" s="86"/>
-      <c r="AX24" s="86"/>
-      <c r="AY24" s="86"/>
-      <c r="AZ24" s="87"/>
-      <c r="BA24" s="18">
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="82"/>
+      <c r="AQ24" s="82"/>
+      <c r="AR24" s="82"/>
+      <c r="AS24" s="82"/>
+      <c r="AT24" s="82"/>
+      <c r="AU24" s="82"/>
+      <c r="AV24" s="82"/>
+      <c r="AW24" s="82"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="83"/>
+      <c r="BA24" s="17">
         <v>44117</v>
       </c>
-      <c r="BB24" s="19" t="s">
+      <c r="BB24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BC24" s="20">
+      <c r="BC24" s="19">
         <v>44118</v>
       </c>
     </row>
-    <row r="25" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="21">
+    <row r="25" spans="1:55" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="47" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="78" t="s">
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="78"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="48"/>
-      <c r="AU25" s="48"/>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="48"/>
-      <c r="AZ25" s="48"/>
-      <c r="BA25" s="14">
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="13">
         <v>44118</v>
       </c>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="11"/>
-    </row>
-    <row r="26" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="21">
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="10"/>
+    </row>
+    <row r="26" spans="1:55" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="20">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="47" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="78" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="78"/>
-      <c r="AC26" s="78"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="78"/>
-      <c r="AF26" s="78"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="48"/>
-      <c r="AV26" s="48"/>
-      <c r="AW26" s="48"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="48"/>
-      <c r="AZ26" s="48"/>
-      <c r="BA26" s="14">
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="77"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="45"/>
+      <c r="AZ26" s="45"/>
+      <c r="BA26" s="13">
         <v>44118</v>
       </c>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="11"/>
-    </row>
-    <row r="27" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="21"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="78"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="48"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="48"/>
-      <c r="AZ27" s="48"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="11"/>
-    </row>
-    <row r="28" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="21"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="78"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AT28" s="48"/>
-      <c r="AU28" s="48"/>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="48"/>
-      <c r="AX28" s="48"/>
-      <c r="AY28" s="48"/>
-      <c r="AZ28" s="48"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="11"/>
-    </row>
-    <row r="29" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="21"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="48"/>
-      <c r="AO29" s="48"/>
-      <c r="AP29" s="48"/>
-      <c r="AQ29" s="48"/>
-      <c r="AR29" s="48"/>
-      <c r="AS29" s="48"/>
-      <c r="AT29" s="48"/>
-      <c r="AU29" s="48"/>
-      <c r="AV29" s="48"/>
-      <c r="AW29" s="48"/>
-      <c r="AX29" s="48"/>
-      <c r="AY29" s="48"/>
-      <c r="AZ29" s="48"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="11"/>
-    </row>
-    <row r="30" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="21"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="48"/>
-      <c r="AN30" s="48"/>
-      <c r="AO30" s="48"/>
-      <c r="AP30" s="48"/>
-      <c r="AQ30" s="48"/>
-      <c r="AR30" s="48"/>
-      <c r="AS30" s="48"/>
-      <c r="AT30" s="48"/>
-      <c r="AU30" s="48"/>
-      <c r="AV30" s="48"/>
-      <c r="AW30" s="48"/>
-      <c r="AX30" s="48"/>
-      <c r="AY30" s="48"/>
-      <c r="AZ30" s="48"/>
-      <c r="BA30" s="10"/>
-      <c r="BB30" s="10"/>
-      <c r="BC30" s="11"/>
-    </row>
-    <row r="31" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="21"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="78"/>
-      <c r="AC31" s="78"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="78"/>
-      <c r="AF31" s="78"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="48"/>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="48"/>
-      <c r="AX31" s="48"/>
-      <c r="AY31" s="48"/>
-      <c r="AZ31" s="48"/>
-      <c r="BA31" s="10"/>
-      <c r="BB31" s="10"/>
-      <c r="BC31" s="11"/>
-    </row>
-    <row r="32" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="21"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="78"/>
-      <c r="AC32" s="78"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="78"/>
-      <c r="AF32" s="78"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="48"/>
-      <c r="AN32" s="48"/>
-      <c r="AO32" s="48"/>
-      <c r="AP32" s="48"/>
-      <c r="AQ32" s="48"/>
-      <c r="AR32" s="48"/>
-      <c r="AS32" s="48"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="48"/>
-      <c r="AV32" s="48"/>
-      <c r="AW32" s="48"/>
-      <c r="AX32" s="48"/>
-      <c r="AY32" s="48"/>
-      <c r="AZ32" s="48"/>
-      <c r="BA32" s="10"/>
-      <c r="BB32" s="10"/>
-      <c r="BC32" s="11"/>
-    </row>
-    <row r="33" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="21"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="78"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="48"/>
-      <c r="AN33" s="48"/>
-      <c r="AO33" s="48"/>
-      <c r="AP33" s="48"/>
-      <c r="AQ33" s="48"/>
-      <c r="AR33" s="48"/>
-      <c r="AS33" s="48"/>
-      <c r="AT33" s="48"/>
-      <c r="AU33" s="48"/>
-      <c r="AV33" s="48"/>
-      <c r="AW33" s="48"/>
-      <c r="AX33" s="48"/>
-      <c r="AY33" s="48"/>
-      <c r="AZ33" s="48"/>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="11"/>
-    </row>
-    <row r="34" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="24"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="83"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="83"/>
-      <c r="AD34" s="83"/>
-      <c r="AE34" s="83"/>
-      <c r="AF34" s="83"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="12"/>
-      <c r="BB34" s="12"/>
-      <c r="BC34" s="13"/>
-    </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="10"/>
+    </row>
+    <row r="27" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="20"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="45"/>
+      <c r="AZ27" s="45"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="10"/>
+    </row>
+    <row r="28" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="20"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="45"/>
+      <c r="AS28" s="45"/>
+      <c r="AT28" s="45"/>
+      <c r="AU28" s="45"/>
+      <c r="AV28" s="45"/>
+      <c r="AW28" s="45"/>
+      <c r="AX28" s="45"/>
+      <c r="AY28" s="45"/>
+      <c r="AZ28" s="45"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="10"/>
+    </row>
+    <row r="29" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="20"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="45"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="45"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="45"/>
+      <c r="AX29" s="45"/>
+      <c r="AY29" s="45"/>
+      <c r="AZ29" s="45"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="10"/>
+    </row>
+    <row r="30" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="20"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="45"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="45"/>
+      <c r="AX30" s="45"/>
+      <c r="AY30" s="45"/>
+      <c r="AZ30" s="45"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="9"/>
+      <c r="BC30" s="10"/>
+    </row>
+    <row r="31" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="20"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="45"/>
+      <c r="AX31" s="45"/>
+      <c r="AY31" s="45"/>
+      <c r="AZ31" s="45"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="10"/>
+    </row>
+    <row r="32" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="20"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="45"/>
+      <c r="AX32" s="45"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="45"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="9"/>
+      <c r="BC32" s="10"/>
+    </row>
+    <row r="33" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="20"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77"/>
+      <c r="AE33" s="77"/>
+      <c r="AF33" s="77"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="45"/>
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="45"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="10"/>
+    </row>
+    <row r="34" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="23"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="87"/>
+      <c r="AE34" s="87"/>
+      <c r="AF34" s="87"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="72"/>
+      <c r="AM34" s="72"/>
+      <c r="AN34" s="72"/>
+      <c r="AO34" s="72"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="72"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="12"/>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -6282,7 +6278,7 @@
       <c r="AJ35" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:BC34" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A4:BC34">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
@@ -6331,6 +6327,137 @@
     <filterColumn colId="50" showButton="0"/>
   </autoFilter>
   <mergeCells count="155">
+    <mergeCell ref="M33:AF33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:AF32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="AG33:AZ33"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:AF30"/>
+    <mergeCell ref="AG30:AZ30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:AF31"/>
+    <mergeCell ref="AG31:AZ31"/>
+    <mergeCell ref="AG22:AZ22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:AF29"/>
+    <mergeCell ref="AG34:AZ34"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="AG18:AZ18"/>
+    <mergeCell ref="AG19:AZ19"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="M34:AF34"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:AF21"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="AG32:AZ32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M14:AF14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="M15:AF15"/>
+    <mergeCell ref="AG14:AZ14"/>
+    <mergeCell ref="AG15:AZ15"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="AG12:AZ12"/>
+    <mergeCell ref="AG13:AZ13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="M10:AF10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="M11:AF11"/>
+    <mergeCell ref="AG10:AZ10"/>
+    <mergeCell ref="AG11:AZ11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="M12:AF12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="M13:AF13"/>
+    <mergeCell ref="AG8:AZ8"/>
+    <mergeCell ref="AG9:AZ9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="M6:AF6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="M7:AF7"/>
+    <mergeCell ref="AG6:AZ6"/>
+    <mergeCell ref="AG7:AZ7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="M8:AF8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M9:AF9"/>
+    <mergeCell ref="AG4:AZ4"/>
+    <mergeCell ref="AG5:AZ5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="M4:AF4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="M5:AF5"/>
+    <mergeCell ref="AG29:AZ29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:AF28"/>
+    <mergeCell ref="AG28:AZ28"/>
+    <mergeCell ref="M26:AF26"/>
+    <mergeCell ref="AG26:AZ26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:AF27"/>
+    <mergeCell ref="AG27:AZ27"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="I20:L20"/>
@@ -6355,144 +6482,13 @@
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="M22:AF22"/>
-    <mergeCell ref="AG29:AZ29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:AF28"/>
-    <mergeCell ref="AG28:AZ28"/>
-    <mergeCell ref="M26:AF26"/>
-    <mergeCell ref="AG26:AZ26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:AF27"/>
-    <mergeCell ref="AG27:AZ27"/>
-    <mergeCell ref="AG4:AZ4"/>
-    <mergeCell ref="AG5:AZ5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="M4:AF4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="M5:AF5"/>
-    <mergeCell ref="AG8:AZ8"/>
-    <mergeCell ref="AG9:AZ9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="M6:AF6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="M7:AF7"/>
-    <mergeCell ref="AG6:AZ6"/>
-    <mergeCell ref="AG7:AZ7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="M8:AF8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M9:AF9"/>
-    <mergeCell ref="AG12:AZ12"/>
-    <mergeCell ref="AG13:AZ13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="M10:AF10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="M11:AF11"/>
-    <mergeCell ref="AG10:AZ10"/>
-    <mergeCell ref="AG11:AZ11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="M12:AF12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="M13:AF13"/>
-    <mergeCell ref="AG16:AZ16"/>
-    <mergeCell ref="AG17:AZ17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M14:AF14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="M15:AF15"/>
-    <mergeCell ref="AG14:AZ14"/>
-    <mergeCell ref="AG15:AZ15"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="M16:AF16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="M17:AF17"/>
-    <mergeCell ref="AG34:AZ34"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="M18:AF18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="M19:AF19"/>
-    <mergeCell ref="AG18:AZ18"/>
-    <mergeCell ref="AG19:AZ19"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="M34:AF34"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:AF21"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="AG32:AZ32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="M33:AF33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:AF32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="AG21:AZ21"/>
-    <mergeCell ref="AG33:AZ33"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:AF30"/>
-    <mergeCell ref="AG30:AZ30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:AF31"/>
-    <mergeCell ref="AG31:AZ31"/>
-    <mergeCell ref="AG22:AZ22"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:AF29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:L6" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:L6">
       <formula1>"表紙,更新履歴,画面デザイン,入出力項目,処理概要,備考"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:L34" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:L34">
       <formula1>"表紙,更新履歴,画面デザイン,入出力項目,処理概要,備考,その他"</formula1>
     </dataValidation>
   </dataValidations>
